--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA_project\Learning-hub\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farah\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="269">
   <si>
     <t>Descreption</t>
   </si>
@@ -698,6 +698,228 @@
   </si>
   <si>
     <t>LG_24</t>
+  </si>
+  <si>
+    <t>Article Module</t>
+  </si>
+  <si>
+    <t>AM_1</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verfiy that admin can review article by clicking on status button to "accepet or reject"the article  </t>
+  </si>
+  <si>
+    <t>Check that admin can clicking on status button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin can click on status button
+and it redirected to second request admin page </t>
+  </si>
+  <si>
+    <t>Farah</t>
+  </si>
+  <si>
+    <t>AM_2</t>
+  </si>
+  <si>
+    <t>Check that admin can clicking on approve  button</t>
+  </si>
+  <si>
+    <t>AM_3</t>
+  </si>
+  <si>
+    <t>Check that admin can clicking on reject  button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verfiy that admin can clicking on accept button to accept the article  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verfiy that admin can clicking on reject button to reject the article  </t>
+  </si>
+  <si>
+    <t>Admin can click on Accept button
+to accept the article to be published</t>
+  </si>
+  <si>
+    <t>Admin can click on  reject button
+to reject the article  from beging publishing</t>
+  </si>
+  <si>
+    <t>AM_4</t>
+  </si>
+  <si>
+    <t>Check that admin can click on notifications   button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin can click on notifaction button
+</t>
+  </si>
+  <si>
+    <t>AM_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verfiy that admin can clicking on notifications  to see all added articles of the user  </t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>AM_6</t>
+  </si>
+  <si>
+    <t>Check that Accept button is Dispalyed</t>
+  </si>
+  <si>
+    <t>AM_7</t>
+  </si>
+  <si>
+    <t>Check that Reject button is Dispalyed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that stauts button is appeared in article table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that accept button is appeared in article table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that reject button is appeared in article table </t>
+  </si>
+  <si>
+    <t>Check that status button is Dispalyed</t>
+  </si>
+  <si>
+    <t>AM_8</t>
+  </si>
+  <si>
+    <t>Check that notifications button is Dispalyed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that notifications button is appeared in the request page </t>
+  </si>
+  <si>
+    <t>the status button bar appears in the page in it's position</t>
+  </si>
+  <si>
+    <t>the accept button bar appears in the page in it's position</t>
+  </si>
+  <si>
+    <t>the  reject button bar appears in the page in it's position</t>
+  </si>
+  <si>
+    <t>the notifaction button bar appears in the page in it's position</t>
+  </si>
+  <si>
+    <t>AM_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check on Review article table contained </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- login as admin with vaild username and password 
+2- a request pages should be  loaded with the appearance of table that inculde uploaded by , title , Date , status button 
+3- click on Status Button
+4- a second request pages should be  loaded with the appearance of table that inculde uploaded by , title , Date , accept button , reject button
+</t>
+  </si>
+  <si>
+    <t>The table appear with title , uploadedby
+ ,Date ,Accept and Reject Button</t>
+  </si>
+  <si>
+    <t>1- login as admin with vaild username and password 
+2- a request pages hould be  loaded with the appearance of table that inculde Author , title , Date , status
+3- click on status  button
+4-admin request second page should be loaded 
+5-a table appeare that inculde  Author , title , Date , Accept , reject
+6-click on accept button</t>
+  </si>
+  <si>
+    <t>A table appear with title , uploaded by
+ , uploaded Date ,Accept and Reject Button</t>
+  </si>
+  <si>
+    <t>A notifaction button bar appears in the page in it's position</t>
+  </si>
+  <si>
+    <t>A  reject button bar appears in the page in it's position</t>
+  </si>
+  <si>
+    <t>A accept button bar appears in the page in it's position</t>
+  </si>
+  <si>
+    <t>A status button bar appears in the page in it's position</t>
+  </si>
+  <si>
+    <t>Admin can click on Accept button
+ and it's redirect to anther page with an  alert message appear "article rejected'</t>
+  </si>
+  <si>
+    <t>Admin can click on Accept button
+ and it's redirect to anther page with an  alert message appear "article accept'</t>
+  </si>
+  <si>
+    <t>Admin can click on status button and its redirect to admin request second page</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Notifaction button is not clickable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verfiy that table contain title , DateUploaded ,uploaded by
+, accept and reject button </t>
+  </si>
+  <si>
+    <t>1- login as admin with vaild username and password 
+2- a request pages hould be  loaded with the appearance of table that inculdetitle , Date  uploadedby ,status button
+3-click on status button
+4-A second request admin page is loaded
+5-an article table appear inculde Author , title , Date ,Accept button  and  reject button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- login as admin with vaild username and password 
+2- a request pages hould be  loaded with the appearance of table that inculde Author , title , Date , satuts button
+3- notificaton button appear on the left hand side of the request page </t>
+  </si>
+  <si>
+    <t>1- login as admin with vaild username and password 
+2- a request pages hould be  loaded with the appearance of table that inculde   title , Date uploadedby ,status Button
+3-click on status button
+4-A second request admin page is loaded
+5-an article table appear inculde Author , title , Date ,Accept button  and  reject button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- login as admin with vaild username and password 
+2- a request pages hould be  loaded with the appearance of table that inculde title , uploaededby , Date , status button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- login as admin with vaild username and password 
+2-a request page should be  loaded with the appearance of table that inculde  title , Date , uploadedby, status
+3- click on status  button
+4-admin request page should be loaded </t>
+  </si>
+  <si>
+    <t>1- login as admin with vaild username and password 
+2- a request pages hould be  loaded with the appearance of table that inculde title , Date , uploadedby,status button
+3- click on status  button
+4-admin request second page should be loaded 
+5-a table appeare that inculde  Author , title , Date , Accept , reject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- login as admin with vaild username and password 
+2- a request pages hould be  loaded with the appearance of table that inculde title,uploadedby , Date , satuts
+3-click on notificaton button </t>
   </si>
 </sst>
 </file>
@@ -714,27 +936,29 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FFF9F9F9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -743,19 +967,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF073763"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,20 +1014,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,27 +1025,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,1264 +1343,1550 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB53"/>
+  <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D41" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="37.5546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="43.21875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="24.109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="18" style="7" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="8" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:27" s="4" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:28" s="4" customFormat="1" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:27" s="17" customFormat="1" ht="50.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="3"/>
-    </row>
-    <row r="3" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="L2" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+    </row>
+    <row r="3" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="J3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="J4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="J5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="J6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="J7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="J8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="J9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="J10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="J11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="J12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="J13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="J14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="J15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="J16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="J17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="J18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="J19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="J20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="J21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="J22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="J23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="J24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="J25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="J26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="J28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="J29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="J30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D31" t="s">
         <v>133</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="J31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="J31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J32" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="J32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J33" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="J33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="J34" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="J34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J35" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="J35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="J36" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="J36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J37" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="J37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="J38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="J38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="J39" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="J39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="J40" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="J40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J41" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="J41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="J42" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="J42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="J43" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="J43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="J44" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="J44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="J45" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="J45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="J46" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="J46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="J47" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+      <c r="J47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="H48" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="J48" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="J48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H49" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="J49" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="J49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H50" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="J50" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="J50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="H51" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="J51" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="J51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="H52" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="J52" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+      <c r="J52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H53" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="J53" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>64</v>
+      <c r="J53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+    </row>
+    <row r="58" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L59" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L60" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L61" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="7" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K62" s="6"/>
+      <c r="L62" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="7" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K63" s="6"/>
+      <c r="L63" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="7" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K64" s="6"/>
+      <c r="L64" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="8" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K66" s="1"/>
+      <c r="L66" s="7" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A27:K27"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="281">
   <si>
     <t>Descreption</t>
   </si>
@@ -920,6 +920,55 @@
     <t xml:space="preserve">1- login as admin with vaild username and password 
 2- a request pages hould be  loaded with the appearance of table that inculde title,uploadedby , Date , satuts
 3-click on notificaton button </t>
+  </si>
+  <si>
+    <t>AM_10</t>
+  </si>
+  <si>
+    <t>AM_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the  article has been removed from article table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verfiy  when admin click  on accept or reject button  it should be removed from table article in the first request admin  page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- login as admin with vaild username and password 
+2- a request pages should be  loaded with the appearance of table that inculde uploaded by , title , Date , status button 
+3- click on Status Button
+4- a second request pages should be  loaded with the appearance of table that inculde uploaded by , title , Date , accept button , reject button
+5- click on accept or reject
+6-go back to first admin request page 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Article should be removed from the table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Article has been removed from article table in admin request page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- login as admin with vaild username and password 
+2- a request pages should be  loaded with the appearance of table that inculde uploaded by , title , Date , status button 
+3- click on Status Button
+4- a second request pages should be  loaded with the appearance of table that inculde uploaded by , title , Date , accept button , reject button
+5- click on accept or reject
+6-go back to first admin request page 
+7-open Database and see on tables articles that it has been added with new article
+</t>
+  </si>
+  <si>
+    <t>Article should be added in Database</t>
+  </si>
+  <si>
+    <t>Article is added in Database article table</t>
+  </si>
+  <si>
+    <t>Check that accpet article or reject article has been added in article tables in database</t>
+  </si>
+  <si>
+    <t>Verfiy when admin accpet or reject article in has been added in Data base</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1063,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1062,6 +1111,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1343,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA66"/>
+  <dimension ref="A1:AA68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,7 +1412,7 @@
     <col min="4" max="4" width="43.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="24.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="18" style="3" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" style="1" customWidth="1"/>
@@ -1374,7 +1429,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="10"/>
@@ -1994,7 +2049,7 @@
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="G27" s="19"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="13"/>
@@ -2607,7 +2662,7 @@
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
+      <c r="G56" s="19"/>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="13"/>
@@ -2871,7 +2926,7 @@
       <c r="F66" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="G66" s="3"/>
+      <c r="G66" s="2"/>
       <c r="H66" s="6" t="s">
         <v>247</v>
       </c>
@@ -2883,6 +2938,64 @@
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="330" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K68" s="1" t="s">
         <v>259</v>
       </c>
     </row>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farah\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mazmy\Documents\GitHub\Project\Learning-hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="407">
   <si>
     <t>Descreption</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>Tittle</t>
   </si>
   <si>
     <t>AR</t>
@@ -970,12 +967,570 @@
   <si>
     <t>Verfiy when admin accpet or reject article in has been added in Data base</t>
   </si>
+  <si>
+    <t>Verify that the Registration form fields</t>
+  </si>
+  <si>
+    <t>Check the fields of the registration form to make sure that they are all present</t>
+  </si>
+  <si>
+    <t>Google Chrome or Firefox installed
+Visual Studio installed</t>
+  </si>
+  <si>
+    <t>1-Open the project file on Visual Studio
+2- Run the project on Google Chrome or Firefox browsers
+2- Click on Register</t>
+  </si>
+  <si>
+    <t>The registration form should contain
+First Name, Last Name, Username, E-mail, Password, Confrim Password fields &amp; Submit button</t>
+  </si>
+  <si>
+    <t>Azmy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the mandatory fields are marked </t>
+  </si>
+  <si>
+    <t>The mandatory fields should be marked by asterisk (*) so that the user know what should he/she fill in the form</t>
+  </si>
+  <si>
+    <t>1-Open the project file on Visual Studio
+2- Run the project on Google Chrome or Firefox browsers
+3- Click on Register</t>
+  </si>
+  <si>
+    <t>The fields Username, E-mail, Password &amp; Confirm Password should be marked by (*) beside the field title</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Verify the functionality of submit button</t>
+  </si>
+  <si>
+    <t>Ensure that the submit button is functional when the user click on it</t>
+  </si>
+  <si>
+    <t>1-Open the project file on Visual Studio
+2- Run the project on Google Chrome or Firefox browsers
+3- Click on Register
+4- Fill in the form
+5-Click on Submit button</t>
+  </si>
+  <si>
+    <t>When clicking on submit button, the data entered by user should be sent to the database.</t>
+  </si>
+  <si>
+    <t>Verify that the user info added to the database</t>
+  </si>
+  <si>
+    <t>Ensure that clicking on submit button will send the entered data to the database</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>The user info will be added to the users' table in the database</t>
+  </si>
+  <si>
+    <t>Verify that the system messages generated when leaving Username field empty</t>
+  </si>
+  <si>
+    <t>Ensure that the system generates messages when the user submit the form without filling the Username field</t>
+  </si>
+  <si>
+    <t>1-Open the project file on Visual Studio
+2- Run the project on Google Chrome or Firefox browsers
+3- Click on Register
+4- Leave the Username field empty
+5-Click on Submit button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A message should be displayed beside the mandatory field that left empty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"The Username is required"</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify that the system messages generated when leaving Password field empty</t>
+  </si>
+  <si>
+    <t>Ensure that the system generates messages when the user submit the form without filling the Password field</t>
+  </si>
+  <si>
+    <t>1-Open the project file on Visual Studio
+2- Run the project on Google Chrome or Firefox browsers
+3- Click on Register
+4- Leave the Passwod field empty
+5-Click on Submit button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A message should be displayed beside the mandatory field that left empty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"The Password is required"</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify that the system messages generated when leaving Confirm Password field empty</t>
+  </si>
+  <si>
+    <t>Ensure that the system generates messages when the user submit the form without filling the Confirm Password field</t>
+  </si>
+  <si>
+    <t>1-Open the project file on Visual Studio
+2- Run the project on Google Chrome or Firefox browsers
+3- Click on Register
+4- Leave the Confirm Passwod field empty
+5-Click on Submit button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A message should be displayed beside the mandatory field that left empty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"The Confirm Password is required"</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify that the system messages generated when leaving  Email field empty</t>
+  </si>
+  <si>
+    <t>Ensure that the system generates messages when the user submit the form without filling the Email field</t>
+  </si>
+  <si>
+    <t>1-Open the project file on Visual Studio
+2- Run the project on Google Chrome or Firefox browsers
+3- Click on Register
+4- Leave the Email field empty
+5-Click on Submit button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A message should be displayed beside the mandatory field that left empty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"The Email is required"</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify that entering blank spaces in Username field lead to validation error</t>
+  </si>
+  <si>
+    <t>Ensure that adding blank spaces in the username field will generate system error.</t>
+  </si>
+  <si>
+    <t>1-Open the project file on Visual Studio
+2- Run the project on Google Chrome or Firefox browsers
+3- Click on Register
+4- Add space in the Username field
+5-Click on Submit button</t>
+  </si>
+  <si>
+    <t>Username: "Moh amed"</t>
+  </si>
+  <si>
+    <t>An error message should appear to the user beside the field telling him/her that Username accepts characters and numbers only</t>
+  </si>
+  <si>
+    <t>Verify that system generates a validation message when entering a special character in username field</t>
+  </si>
+  <si>
+    <t>Ensure that adding a special character to the username will lead to an error</t>
+  </si>
+  <si>
+    <t>1-Go to https://www.learning-hub.com
+2- Click on Register
+3- Enter a username with special character
+4-Click on Submit button</t>
+  </si>
+  <si>
+    <t>Username: "Moh@med"</t>
+  </si>
+  <si>
+    <t>Verify that entering a valid username will not give any errors</t>
+  </si>
+  <si>
+    <t>Ensure that entering alphanumeric values in Username field will not show an error</t>
+  </si>
+  <si>
+    <t>1-Open the project file on Visual Studio
+2- Run the project on Google Chrome or Firefox browsers
+3- Click on Register
+4- Add an alphanumeric value in Username field
+5-Click on Submit button</t>
+  </si>
+  <si>
+    <t>Username: "Mohamed92"</t>
+  </si>
+  <si>
+    <t>The system should proceed in submitting the form without giving any errors</t>
+  </si>
+  <si>
+    <t>Verify that leaving optional fields will not give any errors</t>
+  </si>
+  <si>
+    <t>Ensure that clicking on submit button by leaving optional fields, submits the data to the server without any validation error</t>
+  </si>
+  <si>
+    <t>1-Open the project file on Visual Studio
+2- Run the project on Google Chrome or Firefox browsers
+3- Click on Register
+4- Leave the optional fields
+5-Click on Submit button</t>
+  </si>
+  <si>
+    <t>Verify that system generates a validation message when entering existing username</t>
+  </si>
+  <si>
+    <t>Ensure that entering an existing username will lead to an error message to be displayed to the user telling him that username is already exists</t>
+  </si>
+  <si>
+    <t>1-Open the project file on Visual Studio
+2- Run the project on Google Chrome or Firefox browsers
+3- Click on Register
+4- Enter an already existing username
+5-Click on Submit button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system will show an error message </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Username already exists"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> beside the field</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify that the entering unmatching password and confirm password values gives an error</t>
+  </si>
+  <si>
+    <t>The system should generate an error when the user enters different values in password and confirm password fields</t>
+  </si>
+  <si>
+    <t>1-Open the project file on Visual Studio
+2- Run the project on Google Chrome or Firefox browsers
+2- Click on Register
+3- Enter a password in password field
+4- Enter a different password in confirm password field
+5-Click on Submit button</t>
+  </si>
+  <si>
+    <t>Password: "Mohamed"
+Confirm: "Azmy"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system will give an error message </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Password and Confirm password fields don't match"</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify that entering a password without uppercase letters</t>
+  </si>
+  <si>
+    <t>The user should enter a complex password containing two uppercase letters in order to proceed with registering a new account</t>
+  </si>
+  <si>
+    <t>1-Open the project file on Visual Studio
+2- Run the project on Google Chrome or Firefox browsers
+3- Click on Register
+4- Enter a password that doesn't contain a uppercase letters
+5- Enter the same password in confirm password field
+6-Click on Submit button</t>
+  </si>
+  <si>
+    <t>Password: "mo@@ameda1"</t>
+  </si>
+  <si>
+    <t>The system should generate an error "The password should follow these constraints: 
+1- 8 - 12 characters 
+2- At least two capital letters
+3- At least one number
+4- At least two special characters</t>
+  </si>
+  <si>
+    <t>Verify that entering a password with one uppercase letter</t>
+  </si>
+  <si>
+    <t>1-Open the project file on Visual Studio
+2- Run the project on Google Chrome or Firefox browsers
+3- Click on Register
+4- Enter a password that  contains one uppercase letter only
+5- Enter the same password in confirm password field
+6-Click on Submit button</t>
+  </si>
+  <si>
+    <t>Password: "Mo@@ameda1"</t>
+  </si>
+  <si>
+    <t>Verify that entering a password without numbers</t>
+  </si>
+  <si>
+    <t>The user should enter a complex password containing at least one number in order to proceed with registering a new account</t>
+  </si>
+  <si>
+    <t>1-Open the project file on Visual Studio
+2- Run the project on Google Chrome or Firefox browsers
+3- Click on Register
+4- Enter a password that doesn't contain numbers
+5- Enter the same password in confirm password field
+6-Click on Submit button</t>
+  </si>
+  <si>
+    <t>Password: "MO@@ameda"</t>
+  </si>
+  <si>
+    <t>Verify that entering a password without special characters</t>
+  </si>
+  <si>
+    <t>The user should enter a complex password containing two special characters in order to proceed with registering a new account</t>
+  </si>
+  <si>
+    <t>1-Open the project file on Visual Studio
+2- Run the project on Google Chrome or Firefox browsers
+3- Click on Register
+4- Enter a password that doesn't contain special characters
+5- Enter the same password in confirm password field
+6-Click on Submit button</t>
+  </si>
+  <si>
+    <t>Password: "MOhamedaz1"</t>
+  </si>
+  <si>
+    <t>Verify that entering a password with one special character</t>
+  </si>
+  <si>
+    <t>1-Open the project file on Visual Studio
+2- Run the project on Google Chrome or Firefox browsers
+3- Click on Register
+4- Enter a password that  contains one special character only
+5- Enter the same password in confirm password field
+6-Click on Submit button</t>
+  </si>
+  <si>
+    <t>Password: "Moh@medaz1"</t>
+  </si>
+  <si>
+    <t>Verify that entering a password less than 8 characters</t>
+  </si>
+  <si>
+    <t>The user should enter a complex password from 8-12 letters in order to proceed with registering a new account</t>
+  </si>
+  <si>
+    <t>1-Open the project file on Visual Studio
+2- Run the project on Google Chrome or Firefox browsers
+3- Click on Register
+4- Enter a password that is less than 8 characters
+5- Enter the same password in confirm password field
+6-Click on Submit button</t>
+  </si>
+  <si>
+    <t>Password: "Moh@"</t>
+  </si>
+  <si>
+    <t>Verify that entering a password format will not give any errors</t>
+  </si>
+  <si>
+    <t>The user should enter a complex password so that he could proceed with submitting the form</t>
+  </si>
+  <si>
+    <t>1-Open the project file on Visual Studio
+2- Run the project on Google Chrome or Firefox browsers
+3- Click on Register
+4- Enter a valid password 
+5- Enter the same password in confirm password field
+6-Click on Submit button</t>
+  </si>
+  <si>
+    <t>Password: "MOh@@medaz92"</t>
+  </si>
+  <si>
+    <t>The form will be submitted successfully</t>
+  </si>
+  <si>
+    <t>Verify that the system generates error if no domain entered in the email</t>
+  </si>
+  <si>
+    <t>The user should enter an email which follows the form set "username@domain.com"</t>
+  </si>
+  <si>
+    <t>1-Open the project file on Visual Studio
+2- Run the project on Google Chrome or Firefox browsers
+3- Click on Register
+4- fill in the form with valid data
+5- Enter an incorrect email format
+6-Click on Submit button</t>
+  </si>
+  <si>
+    <t>Email: "username@"</t>
+  </si>
+  <si>
+    <t>The system will generate an error giving the correct email format the user should use "username@domain.com"</t>
+  </si>
+  <si>
+    <t>Verify that the system generates error if no "@" is entered</t>
+  </si>
+  <si>
+    <t>Email: "username.com"</t>
+  </si>
+  <si>
+    <t>Verify that the system generates error if the email starts with "@"</t>
+  </si>
+  <si>
+    <t>Email: "@username.com"</t>
+  </si>
+  <si>
+    <t>Verify that entering correct email format will not give any errors</t>
+  </si>
+  <si>
+    <t>Email: "username@domain.com"</t>
+  </si>
+  <si>
+    <t>RM_1</t>
+  </si>
+  <si>
+    <t>Registration Module</t>
+  </si>
+  <si>
+    <t>RM_2</t>
+  </si>
+  <si>
+    <t>RM_3</t>
+  </si>
+  <si>
+    <t>RM_4</t>
+  </si>
+  <si>
+    <t>RM_5</t>
+  </si>
+  <si>
+    <t>RM_6</t>
+  </si>
+  <si>
+    <t>RM_7</t>
+  </si>
+  <si>
+    <t>RM_8</t>
+  </si>
+  <si>
+    <t>RM_9</t>
+  </si>
+  <si>
+    <t>RM_10</t>
+  </si>
+  <si>
+    <t>RM_11</t>
+  </si>
+  <si>
+    <t>RM_12</t>
+  </si>
+  <si>
+    <t>RM_13</t>
+  </si>
+  <si>
+    <t>RM_14</t>
+  </si>
+  <si>
+    <t>RM_15</t>
+  </si>
+  <si>
+    <t>RM_16</t>
+  </si>
+  <si>
+    <t>RM_17</t>
+  </si>
+  <si>
+    <t>RM_18</t>
+  </si>
+  <si>
+    <t>RM_19</t>
+  </si>
+  <si>
+    <t>RM_20</t>
+  </si>
+  <si>
+    <t>RM_21</t>
+  </si>
+  <si>
+    <t>RM_22</t>
+  </si>
+  <si>
+    <t>RM_23</t>
+  </si>
+  <si>
+    <t>RM_24</t>
+  </si>
+  <si>
+    <t>RM_25</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1005,6 +1560,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1063,7 +1631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1117,6 +1685,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1398,31 +1975,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA68"/>
+  <dimension ref="A1:AA94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="32.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.1796875" style="3" customWidth="1"/>
     <col min="9" max="9" width="18" style="3" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="4" customFormat="1" ht="26.5" thickBot="1">
       <c r="A1" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1435,7 +2012,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:27" s="17" customFormat="1" ht="50.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="17" customFormat="1" ht="50.5" customHeight="1" thickBot="1">
       <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
@@ -1443,7 +2020,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>9</v>
+        <v>406</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>0</v>
@@ -1461,7 +2038,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>6</v>
@@ -1470,7 +2047,7 @@
         <v>7</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -1488,561 +2065,561 @@
       <c r="Z2" s="16"/>
       <c r="AA2" s="16"/>
     </row>
-    <row r="3" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="29">
       <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="29">
+      <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="29">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="29">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="29">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="29">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="29">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="47.5" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="43.5">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="29">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="43.5">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="43.5">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="34.15" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="43.5">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="43.5">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="29">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="43.5">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="29">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="29">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="43.5">
+      <c r="A22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="29">
+      <c r="A23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="29">
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="29">
+      <c r="A25" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="29">
+      <c r="A26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="5" customFormat="1" ht="26">
+      <c r="A27" s="12" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -2055,607 +2632,607 @@
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
     </row>
-    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="29">
       <c r="A28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30.65" customHeight="1">
+      <c r="A29" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="29">
+      <c r="A30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="29">
+      <c r="A31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="29">
+      <c r="A32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="43.5">
+      <c r="A33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="43.5">
+      <c r="A34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="58">
+      <c r="A35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="43.5">
+      <c r="A36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="43.5">
+      <c r="A37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="43.5">
+      <c r="A38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="43.5">
+      <c r="A39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="43.5">
+      <c r="A40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="29">
+      <c r="A41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="27.65" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="35.5" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="29">
+      <c r="A44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="29">
+      <c r="A45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" t="s">
-        <v>133</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="D45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="29">
+      <c r="A46" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="B46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="H46" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="29">
+      <c r="A47" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="B47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="29">
+      <c r="A48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="H48" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="29">
+      <c r="A49" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="B49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="H49" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="29">
+      <c r="A50" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="B50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="H50" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="29">
+      <c r="A51" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="B51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="H51" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="29">
+      <c r="A52" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="B52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="H52" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="29">
+      <c r="A53" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="B53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="H53" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="5" customFormat="1" ht="26">
       <c r="A56" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -2668,336 +3245,1129 @@
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
     </row>
-    <row r="58" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="135" customHeight="1">
       <c r="A58" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="F58" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H58" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="F58" s="6" t="s">
+      <c r="I58" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L58" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="195" customHeight="1">
+      <c r="A59" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L59" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="180" customHeight="1">
+      <c r="A60" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F60" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H60" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I58" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L58" t="s">
+      <c r="L60" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="120" customHeight="1">
+      <c r="A61" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="I61" s="6" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L59" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="180" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L60" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D61" s="6" t="s">
+      <c r="J61" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L61" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="7" customFormat="1" ht="105" customHeight="1">
+      <c r="A62" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F61" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L61" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="7" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K62" s="6"/>
       <c r="L62" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="7" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="7" customFormat="1" ht="195" customHeight="1">
       <c r="A63" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="D63" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" s="7" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="7" customFormat="1" ht="195" customHeight="1">
       <c r="A64" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="D64" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="135" customHeight="1">
       <c r="A65" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>239</v>
-      </c>
       <c r="F65" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H65" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="8" customFormat="1" ht="225" customHeight="1">
+      <c r="A66" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="I65" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="8" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="B66" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="D66" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="246.5">
       <c r="A67" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="290">
+      <c r="A68" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="I67" s="6" t="s">
+      <c r="B68" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F68" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="J67" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="330" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D68" s="6" t="s">
+      <c r="G68" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="5" customFormat="1" ht="26">
+      <c r="A69" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+    </row>
+    <row r="70" spans="1:12" ht="101.5">
+      <c r="A70" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C70" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="F68" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>259</v>
-      </c>
+      <c r="D70" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="I70" s="20"/>
+      <c r="J70" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+    </row>
+    <row r="71" spans="1:12" ht="72.5">
+      <c r="A71" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="I71" s="20"/>
+      <c r="J71" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+    </row>
+    <row r="72" spans="1:12" ht="101.5">
+      <c r="A72" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="I72" s="20"/>
+      <c r="J72" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+    </row>
+    <row r="73" spans="1:12" ht="43.5">
+      <c r="A73" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="I73" s="20"/>
+      <c r="J73" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+    </row>
+    <row r="74" spans="1:12" ht="116">
+      <c r="A74" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="I74" s="20"/>
+      <c r="J74" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+    </row>
+    <row r="75" spans="1:12" ht="116">
+      <c r="A75" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="I75" s="20"/>
+      <c r="J75" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+    </row>
+    <row r="76" spans="1:12" ht="116">
+      <c r="A76" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="I76" s="20"/>
+      <c r="J76" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+    </row>
+    <row r="77" spans="1:12" ht="101.5">
+      <c r="A77" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F77" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="I77" s="20"/>
+      <c r="J77" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+    </row>
+    <row r="78" spans="1:12" ht="116">
+      <c r="A78" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="G78" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="H78" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="I78" s="20"/>
+      <c r="J78" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+    </row>
+    <row r="79" spans="1:12" ht="87">
+      <c r="A79" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="G79" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="H79" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="I79" s="20"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+    </row>
+    <row r="80" spans="1:12" ht="116">
+      <c r="A80" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="G80" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="H80" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="I80" s="20"/>
+      <c r="J80" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+    </row>
+    <row r="81" spans="1:12" ht="101.5">
+      <c r="A81" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="I81" s="20"/>
+      <c r="J81" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+    </row>
+    <row r="82" spans="1:12" ht="116">
+      <c r="A82" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="I82" s="20"/>
+      <c r="J82" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+    </row>
+    <row r="83" spans="1:12" ht="145">
+      <c r="A83" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="G83" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="H83" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="I83" s="20"/>
+      <c r="J83" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+    </row>
+    <row r="84" spans="1:12" ht="159.5">
+      <c r="A84" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F84" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="G84" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="H84" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="I84" s="20"/>
+      <c r="J84" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+    </row>
+    <row r="85" spans="1:12" ht="159.5">
+      <c r="A85" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F85" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="G85" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="H85" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="I85" s="20"/>
+      <c r="J85" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+    </row>
+    <row r="86" spans="1:12" ht="145">
+      <c r="A86" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F86" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G86" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="H86" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="I86" s="20"/>
+      <c r="J86" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+    </row>
+    <row r="87" spans="1:12" ht="159.5">
+      <c r="A87" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="G87" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="H87" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="I87" s="20"/>
+      <c r="J87" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K87" s="20"/>
+      <c r="L87" s="20"/>
+    </row>
+    <row r="88" spans="1:12" ht="159.5">
+      <c r="A88" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F88" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="G88" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="H88" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="I88" s="20"/>
+      <c r="J88" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
+    </row>
+    <row r="89" spans="1:12" ht="145">
+      <c r="A89" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F89" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="G89" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="H89" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="I89" s="20"/>
+      <c r="J89" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K89" s="20"/>
+      <c r="L89" s="20"/>
+    </row>
+    <row r="90" spans="1:12" ht="130.5">
+      <c r="A90" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="E90" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F90" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="G90" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="H90" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="I90" s="20"/>
+      <c r="J90" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K90" s="20"/>
+      <c r="L90" s="20"/>
+    </row>
+    <row r="91" spans="1:12" ht="145">
+      <c r="A91" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F91" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="G91" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="H91" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="I91" s="20"/>
+      <c r="J91" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
+    </row>
+    <row r="92" spans="1:12" ht="145">
+      <c r="A92" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="E92" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F92" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="G92" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="H92" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="I92" s="20"/>
+      <c r="J92" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+    </row>
+    <row r="93" spans="1:12" ht="145">
+      <c r="A93" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F93" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="G93" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="H93" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="I93" s="20"/>
+      <c r="J93" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K93" s="20"/>
+      <c r="L93" s="20"/>
+    </row>
+    <row r="94" spans="1:12" ht="145">
+      <c r="A94" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F94" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="G94" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="H94" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="I94" s="20"/>
+      <c r="J94" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -1977,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="B57" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58:K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3270,7 +3270,7 @@
       <c r="J58" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="L58" t="s">
+      <c r="K58" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
       <c r="J59" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="L59" t="s">
+      <c r="K59" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3328,7 +3328,7 @@
       <c r="J60" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="L60" t="s">
+      <c r="K60" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       <c r="J61" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="L61" t="s">
+      <c r="K61" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3388,8 +3388,7 @@
       <c r="J62" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K62" s="6"/>
-      <c r="L62" s="7" t="s">
+      <c r="K62" s="7" t="s">
         <v>258</v>
       </c>
     </row>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farah\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mazmy\Documents\GitHub\Project\Learning-hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -971,9 +971,6 @@
   </si>
   <si>
     <t>Ensure that clicking on submit button will send the entered data to the database</t>
-  </si>
-  <si>
-    <t>Database</t>
   </si>
   <si>
     <t>The user info will be added to the users' table in the database</t>
@@ -1541,6 +1538,15 @@
 6-go back to first admin request page 
 8-open Database and see on tables articles that it has been added with new article
 </t>
+  </si>
+  <si>
+    <t>1-Open the project file on Visual Studio
+2- Run the project on Google Chrome or Firefox browsers
+3- Click on Register
+4- Fill in the form
+5-Click on Submit button
+6-Go to the databse
+7-Write a query to get the username just entered</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1707,9 +1713,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1995,26 +1998,26 @@
   <dimension ref="A1:AA94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B71" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+      <selection activeCell="G74" sqref="G73:G74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="32.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.1796875" style="3" customWidth="1"/>
     <col min="9" max="9" width="18" style="3" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="4" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -2029,7 +2032,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:27" s="17" customFormat="1" ht="50.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="17" customFormat="1" ht="50.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>0</v>
@@ -2082,7 +2085,7 @@
       <c r="Z2" s="16"/>
       <c r="AA2" s="16"/>
     </row>
-    <row r="3" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -2105,7 +2108,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -2128,7 +2131,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -2151,7 +2154,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -2174,7 +2177,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -2197,7 +2200,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -2220,7 +2223,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -2266,7 +2269,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -2289,7 +2292,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
@@ -2335,7 +2338,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -2358,7 +2361,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="34.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -2381,7 +2384,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -2404,7 +2407,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
@@ -2427,7 +2430,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -2450,7 +2453,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -2496,7 +2499,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
@@ -2519,7 +2522,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>68</v>
       </c>
@@ -2542,7 +2545,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>73</v>
       </c>
@@ -2565,7 +2568,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
@@ -2588,7 +2591,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>205</v>
       </c>
@@ -2611,7 +2614,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>206</v>
       </c>
@@ -2634,7 +2637,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>64</v>
       </c>
@@ -2649,7 +2652,7 @@
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
     </row>
-    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>103</v>
       </c>
@@ -2672,7 +2675,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>104</v>
       </c>
@@ -2695,7 +2698,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>105</v>
       </c>
@@ -2718,7 +2721,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>106</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>107</v>
       </c>
@@ -2764,7 +2767,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>108</v>
       </c>
@@ -2787,7 +2790,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>109</v>
       </c>
@@ -2810,7 +2813,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>110</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>111</v>
       </c>
@@ -2856,7 +2859,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>112</v>
       </c>
@@ -2879,7 +2882,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>113</v>
       </c>
@@ -2902,7 +2905,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>114</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>115</v>
       </c>
@@ -2948,7 +2951,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>116</v>
       </c>
@@ -2971,7 +2974,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>117</v>
       </c>
@@ -2994,7 +2997,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>118</v>
       </c>
@@ -3017,7 +3020,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>119</v>
       </c>
@@ -3040,7 +3043,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>120</v>
       </c>
@@ -3063,7 +3066,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>121</v>
       </c>
@@ -3086,7 +3089,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>122</v>
       </c>
@@ -3109,7 +3112,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>123</v>
       </c>
@@ -3132,7 +3135,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>124</v>
       </c>
@@ -3155,7 +3158,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>125</v>
       </c>
@@ -3178,7 +3181,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>126</v>
       </c>
@@ -3201,7 +3204,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>127</v>
       </c>
@@ -3224,7 +3227,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>128</v>
       </c>
@@ -3247,7 +3250,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>207</v>
       </c>
@@ -3262,7 +3265,7 @@
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
     </row>
-    <row r="58" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>208</v>
       </c>
@@ -3279,7 +3282,7 @@
         <v>274</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>212</v>
@@ -3295,7 +3298,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="195" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>214</v>
       </c>
@@ -3328,7 +3331,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>216</v>
       </c>
@@ -3345,7 +3348,7 @@
         <v>274</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>221</v>
@@ -3361,7 +3364,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>222</v>
       </c>
@@ -3394,7 +3397,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="7" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" s="7" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>225</v>
       </c>
@@ -3411,7 +3414,7 @@
         <v>274</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="6" t="s">
@@ -3427,7 +3430,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="7" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" s="7" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>228</v>
       </c>
@@ -3444,7 +3447,7 @@
         <v>274</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="6" t="s">
@@ -3461,7 +3464,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="7" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" s="7" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>230</v>
       </c>
@@ -3478,7 +3481,7 @@
         <v>274</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="6" t="s">
@@ -3495,7 +3498,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>236</v>
       </c>
@@ -3512,7 +3515,7 @@
         <v>274</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>242</v>
@@ -3527,7 +3530,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="8" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" s="8" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>243</v>
       </c>
@@ -3561,7 +3564,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="345" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>262</v>
       </c>
@@ -3578,7 +3581,7 @@
         <v>274</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>266</v>
@@ -3593,7 +3596,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="405" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="348" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>263</v>
       </c>
@@ -3610,7 +3613,7 @@
         <v>274</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>268</v>
@@ -3625,9 +3628,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A69" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -3640,9 +3643,9 @@
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
     </row>
-    <row r="70" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>227</v>
@@ -3670,9 +3673,9 @@
       <c r="K70" s="20"/>
       <c r="L70" s="20"/>
     </row>
-    <row r="71" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>227</v>
@@ -3700,9 +3703,9 @@
       <c r="K71" s="20"/>
       <c r="L71" s="20"/>
     </row>
-    <row r="72" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>282</v>
@@ -3730,9 +3733,9 @@
       <c r="K72" s="20"/>
       <c r="L72" s="20"/>
     </row>
-    <row r="73" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="145" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>282</v>
@@ -3746,12 +3749,12 @@
       <c r="E73" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F73" s="22" t="s">
-        <v>289</v>
+      <c r="F73" s="20" t="s">
+        <v>406</v>
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I73" s="20"/>
       <c r="J73" s="6" t="s">
@@ -3760,28 +3763,28 @@
       <c r="K73" s="20"/>
       <c r="L73" s="20"/>
     </row>
-    <row r="74" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C74" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D74" s="20" t="s">
         <v>291</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>292</v>
       </c>
       <c r="E74" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G74" s="20"/>
       <c r="H74" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I74" s="20"/>
       <c r="J74" s="6" t="s">
@@ -3790,28 +3793,28 @@
       <c r="K74" s="20"/>
       <c r="L74" s="20"/>
     </row>
-    <row r="75" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C75" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="D75" s="20" t="s">
         <v>295</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>296</v>
       </c>
       <c r="E75" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G75" s="20"/>
       <c r="H75" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I75" s="20"/>
       <c r="J75" s="6" t="s">
@@ -3820,28 +3823,28 @@
       <c r="K75" s="20"/>
       <c r="L75" s="20"/>
     </row>
-    <row r="76" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C76" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D76" s="20" t="s">
         <v>299</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>300</v>
       </c>
       <c r="E76" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G76" s="20"/>
       <c r="H76" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I76" s="20"/>
       <c r="J76" s="6" t="s">
@@ -3850,28 +3853,28 @@
       <c r="K76" s="20"/>
       <c r="L76" s="20"/>
     </row>
-    <row r="77" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C77" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="D77" s="20" t="s">
         <v>303</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>304</v>
       </c>
       <c r="E77" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G77" s="20"/>
       <c r="H77" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I77" s="20"/>
       <c r="J77" s="6" t="s">
@@ -3880,30 +3883,30 @@
       <c r="K77" s="20"/>
       <c r="L77" s="20"/>
     </row>
-    <row r="78" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C78" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="D78" s="20" t="s">
         <v>307</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>308</v>
       </c>
       <c r="E78" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F78" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="G78" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="G78" s="20" t="s">
+      <c r="H78" s="20" t="s">
         <v>310</v>
-      </c>
-      <c r="H78" s="20" t="s">
-        <v>311</v>
       </c>
       <c r="I78" s="20"/>
       <c r="J78" s="6" t="s">
@@ -3912,60 +3915,60 @@
       <c r="K78" s="20"/>
       <c r="L78" s="20"/>
     </row>
-    <row r="79" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C79" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="D79" s="20" t="s">
         <v>312</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>313</v>
       </c>
       <c r="E79" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F79" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="G79" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="G79" s="20" t="s">
-        <v>315</v>
-      </c>
       <c r="H79" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I79" s="20"/>
       <c r="J79" s="6"/>
       <c r="K79" s="20"/>
       <c r="L79" s="20"/>
     </row>
-    <row r="80" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C80" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D80" s="20" t="s">
         <v>316</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>317</v>
       </c>
       <c r="E80" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F80" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="G80" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="G80" s="20" t="s">
+      <c r="H80" s="20" t="s">
         <v>319</v>
-      </c>
-      <c r="H80" s="20" t="s">
-        <v>320</v>
       </c>
       <c r="I80" s="20"/>
       <c r="J80" s="6" t="s">
@@ -3974,28 +3977,28 @@
       <c r="K80" s="20"/>
       <c r="L80" s="20"/>
     </row>
-    <row r="81" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C81" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="D81" s="20" t="s">
         <v>321</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>322</v>
       </c>
       <c r="E81" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G81" s="20"/>
       <c r="H81" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I81" s="20"/>
       <c r="J81" s="6" t="s">
@@ -4004,28 +4007,28 @@
       <c r="K81" s="20"/>
       <c r="L81" s="20"/>
     </row>
-    <row r="82" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C82" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="D82" s="20" t="s">
         <v>324</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>325</v>
       </c>
       <c r="E82" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G82" s="20"/>
       <c r="H82" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I82" s="20"/>
       <c r="J82" s="6" t="s">
@@ -4034,30 +4037,30 @@
       <c r="K82" s="20"/>
       <c r="L82" s="20"/>
     </row>
-    <row r="83" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="145" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C83" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D83" s="20" t="s">
         <v>328</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>329</v>
       </c>
       <c r="E83" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F83" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="G83" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="G83" s="20" t="s">
+      <c r="H83" s="20" t="s">
         <v>331</v>
-      </c>
-      <c r="H83" s="20" t="s">
-        <v>332</v>
       </c>
       <c r="I83" s="20"/>
       <c r="J83" s="6" t="s">
@@ -4066,30 +4069,30 @@
       <c r="K83" s="20"/>
       <c r="L83" s="20"/>
     </row>
-    <row r="84" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C84" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D84" s="20" t="s">
         <v>333</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>334</v>
       </c>
       <c r="E84" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F84" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="G84" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="G84" s="20" t="s">
+      <c r="H84" s="20" t="s">
         <v>336</v>
-      </c>
-      <c r="H84" s="20" t="s">
-        <v>337</v>
       </c>
       <c r="I84" s="20"/>
       <c r="J84" s="6" t="s">
@@ -4098,30 +4101,30 @@
       <c r="K84" s="20"/>
       <c r="L84" s="20"/>
     </row>
-    <row r="85" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E85" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F85" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="G85" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="G85" s="20" t="s">
-        <v>340</v>
-      </c>
       <c r="H85" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I85" s="20"/>
       <c r="J85" s="6" t="s">
@@ -4130,30 +4133,30 @@
       <c r="K85" s="20"/>
       <c r="L85" s="20"/>
     </row>
-    <row r="86" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="145" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C86" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="D86" s="20" t="s">
         <v>341</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>342</v>
       </c>
       <c r="E86" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F86" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="G86" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="G86" s="20" t="s">
-        <v>344</v>
-      </c>
       <c r="H86" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I86" s="20"/>
       <c r="J86" s="6" t="s">
@@ -4162,30 +4165,30 @@
       <c r="K86" s="20"/>
       <c r="L86" s="20"/>
     </row>
-    <row r="87" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C87" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="D87" s="20" t="s">
         <v>345</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>346</v>
       </c>
       <c r="E87" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F87" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="G87" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="G87" s="20" t="s">
-        <v>348</v>
-      </c>
       <c r="H87" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I87" s="20"/>
       <c r="J87" s="6" t="s">
@@ -4194,30 +4197,30 @@
       <c r="K87" s="20"/>
       <c r="L87" s="20"/>
     </row>
-    <row r="88" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E88" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F88" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="G88" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="G88" s="20" t="s">
-        <v>351</v>
-      </c>
       <c r="H88" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I88" s="20"/>
       <c r="J88" s="6" t="s">
@@ -4226,30 +4229,30 @@
       <c r="K88" s="20"/>
       <c r="L88" s="20"/>
     </row>
-    <row r="89" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="145" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C89" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="D89" s="20" t="s">
         <v>352</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>353</v>
       </c>
       <c r="E89" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F89" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="G89" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="G89" s="20" t="s">
-        <v>355</v>
-      </c>
       <c r="H89" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I89" s="20"/>
       <c r="J89" s="6" t="s">
@@ -4258,30 +4261,30 @@
       <c r="K89" s="20"/>
       <c r="L89" s="20"/>
     </row>
-    <row r="90" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C90" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="D90" s="20" t="s">
         <v>356</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>357</v>
       </c>
       <c r="E90" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F90" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="G90" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="G90" s="20" t="s">
+      <c r="H90" s="20" t="s">
         <v>359</v>
-      </c>
-      <c r="H90" s="20" t="s">
-        <v>360</v>
       </c>
       <c r="I90" s="20"/>
       <c r="J90" s="6" t="s">
@@ -4290,30 +4293,30 @@
       <c r="K90" s="20"/>
       <c r="L90" s="20"/>
     </row>
-    <row r="91" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="145" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C91" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="D91" s="20" t="s">
         <v>361</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>362</v>
       </c>
       <c r="E91" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F91" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="G91" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="G91" s="20" t="s">
+      <c r="H91" s="20" t="s">
         <v>364</v>
-      </c>
-      <c r="H91" s="20" t="s">
-        <v>365</v>
       </c>
       <c r="I91" s="20"/>
       <c r="J91" s="6" t="s">
@@ -4322,30 +4325,30 @@
       <c r="K91" s="20"/>
       <c r="L91" s="20"/>
     </row>
-    <row r="92" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="145" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E92" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H92" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I92" s="20"/>
       <c r="J92" s="6" t="s">
@@ -4354,30 +4357,30 @@
       <c r="K92" s="20"/>
       <c r="L92" s="20"/>
     </row>
-    <row r="93" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="145" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E93" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H93" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I93" s="20"/>
       <c r="J93" s="6" t="s">
@@ -4386,30 +4389,30 @@
       <c r="K93" s="20"/>
       <c r="L93" s="20"/>
     </row>
-    <row r="94" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="145" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E94" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H94" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I94" s="20"/>
       <c r="J94" s="6" t="s">

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="410">
   <si>
     <t>Descreption</t>
   </si>
@@ -1548,12 +1548,21 @@
 6-Go to the databse
 7-Write a query to get the username just entered</t>
   </si>
+  <si>
+    <t>All the mentioned fields are present</t>
+  </si>
+  <si>
+    <t>There are no * beside the mandatory fields</t>
+  </si>
+  <si>
+    <t>Server error page comes up when pressing on submit button</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1598,7 +1607,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1614,6 +1623,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9797"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,7 +1675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1715,12 +1736,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9797"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1997,11 +2029,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B71" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G74" sqref="G73:G74"/>
+    <sheetView tabSelected="1" topLeftCell="C69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="32.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.453125" style="1" customWidth="1"/>
@@ -2014,10 +2046,10 @@
     <col min="9" max="9" width="18" style="3" customWidth="1"/>
     <col min="10" max="10" width="17.7265625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" s="4" customFormat="1" ht="26.5" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -2031,8 +2063,9 @@
       <c r="I1" s="11"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:27" s="17" customFormat="1" ht="50.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:27" s="17" customFormat="1" ht="50.5" customHeight="1" thickBot="1">
       <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
@@ -2066,7 +2099,7 @@
       <c r="K2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>256</v>
       </c>
       <c r="M2" s="16"/>
@@ -2085,7 +2118,7 @@
       <c r="Z2" s="16"/>
       <c r="AA2" s="16"/>
     </row>
-    <row r="3" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" ht="29">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -2108,7 +2141,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="29">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -2131,7 +2164,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="29">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -2154,7 +2187,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="29">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -2177,7 +2210,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="29">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -2200,7 +2233,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="29">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -2223,7 +2256,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="29">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -2246,7 +2279,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="47.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -2269,7 +2302,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="43.5">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -2292,7 +2325,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="29">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -2315,7 +2348,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="43.5">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
@@ -2338,7 +2371,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="43.5">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -2361,7 +2394,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="34.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="34.15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -2384,7 +2417,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="43.5">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -2407,7 +2440,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="43.5">
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
@@ -2430,7 +2463,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="29">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -2453,7 +2486,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="43.5">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
@@ -2476,7 +2509,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="29">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -2499,7 +2532,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="29">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
@@ -2522,7 +2555,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="43.5">
       <c r="A22" s="1" t="s">
         <v>68</v>
       </c>
@@ -2545,7 +2578,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="29">
       <c r="A23" s="1" t="s">
         <v>73</v>
       </c>
@@ -2568,7 +2601,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="29">
       <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
@@ -2591,7 +2624,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="29">
       <c r="A25" s="1" t="s">
         <v>205</v>
       </c>
@@ -2614,7 +2647,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="29">
       <c r="A26" s="1" t="s">
         <v>206</v>
       </c>
@@ -2637,7 +2670,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" s="5" customFormat="1" ht="26">
       <c r="A27" s="12" t="s">
         <v>64</v>
       </c>
@@ -2651,8 +2684,9 @@
       <c r="I27" s="14"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
-    </row>
-    <row r="28" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="1:12" ht="29">
       <c r="A28" s="1" t="s">
         <v>103</v>
       </c>
@@ -2675,7 +2709,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="30.65" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>104</v>
       </c>
@@ -2698,7 +2732,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="29">
       <c r="A30" s="1" t="s">
         <v>105</v>
       </c>
@@ -2721,7 +2755,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="29">
       <c r="A31" s="1" t="s">
         <v>106</v>
       </c>
@@ -2744,7 +2778,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="29">
       <c r="A32" s="1" t="s">
         <v>107</v>
       </c>
@@ -2767,7 +2801,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="43.5">
       <c r="A33" s="1" t="s">
         <v>108</v>
       </c>
@@ -2790,7 +2824,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="43.5">
       <c r="A34" s="1" t="s">
         <v>109</v>
       </c>
@@ -2813,7 +2847,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="58">
       <c r="A35" s="1" t="s">
         <v>110</v>
       </c>
@@ -2836,7 +2870,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="43.5">
       <c r="A36" s="1" t="s">
         <v>111</v>
       </c>
@@ -2859,7 +2893,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="43.5">
       <c r="A37" s="1" t="s">
         <v>112</v>
       </c>
@@ -2882,7 +2916,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="43.5">
       <c r="A38" s="1" t="s">
         <v>113</v>
       </c>
@@ -2905,7 +2939,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="43.5">
       <c r="A39" s="1" t="s">
         <v>114</v>
       </c>
@@ -2928,7 +2962,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="43.5">
       <c r="A40" s="1" t="s">
         <v>115</v>
       </c>
@@ -2951,7 +2985,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="29">
       <c r="A41" s="1" t="s">
         <v>116</v>
       </c>
@@ -2974,7 +3008,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="27.65" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>117</v>
       </c>
@@ -2997,7 +3031,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="35.5" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>118</v>
       </c>
@@ -3020,7 +3054,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="29">
       <c r="A44" s="1" t="s">
         <v>119</v>
       </c>
@@ -3043,7 +3077,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="29">
       <c r="A45" s="1" t="s">
         <v>120</v>
       </c>
@@ -3066,7 +3100,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="29">
       <c r="A46" s="1" t="s">
         <v>121</v>
       </c>
@@ -3089,7 +3123,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="29">
       <c r="A47" s="1" t="s">
         <v>122</v>
       </c>
@@ -3112,7 +3146,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="29">
       <c r="A48" s="1" t="s">
         <v>123</v>
       </c>
@@ -3135,7 +3169,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="29">
       <c r="A49" s="1" t="s">
         <v>124</v>
       </c>
@@ -3158,7 +3192,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="29">
       <c r="A50" s="1" t="s">
         <v>125</v>
       </c>
@@ -3181,7 +3215,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" ht="29">
       <c r="A51" s="1" t="s">
         <v>126</v>
       </c>
@@ -3204,7 +3238,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="29">
       <c r="A52" s="1" t="s">
         <v>127</v>
       </c>
@@ -3227,7 +3261,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="29">
       <c r="A53" s="1" t="s">
         <v>128</v>
       </c>
@@ -3250,7 +3284,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" s="5" customFormat="1" ht="26">
       <c r="A56" s="12" t="s">
         <v>207</v>
       </c>
@@ -3264,8 +3298,9 @@
       <c r="I56" s="14"/>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
-    </row>
-    <row r="58" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L56" s="13"/>
+    </row>
+    <row r="58" spans="1:12" ht="135" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>208</v>
       </c>
@@ -3294,11 +3329,11 @@
         <v>213</v>
       </c>
       <c r="K58"/>
-      <c r="L58" t="s">
+      <c r="L58" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="195" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" ht="195" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>214</v>
       </c>
@@ -3327,11 +3362,11 @@
         <v>213</v>
       </c>
       <c r="K59"/>
-      <c r="L59" t="s">
+      <c r="L59" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" ht="180" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>216</v>
       </c>
@@ -3360,11 +3395,11 @@
         <v>213</v>
       </c>
       <c r="K60"/>
-      <c r="L60" t="s">
+      <c r="L60" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" ht="120" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>222</v>
       </c>
@@ -3393,11 +3428,11 @@
         <v>213</v>
       </c>
       <c r="K61"/>
-      <c r="L61" t="s">
+      <c r="L61" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="7" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" s="7" customFormat="1" ht="105" customHeight="1">
       <c r="A62" s="6" t="s">
         <v>225</v>
       </c>
@@ -3426,11 +3461,11 @@
       <c r="J62" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="L62" s="7" t="s">
+      <c r="L62" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="7" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" s="7" customFormat="1" ht="195" customHeight="1">
       <c r="A63" s="6" t="s">
         <v>228</v>
       </c>
@@ -3460,11 +3495,11 @@
         <v>213</v>
       </c>
       <c r="K63" s="6"/>
-      <c r="L63" s="7" t="s">
+      <c r="L63" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="7" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" s="7" customFormat="1" ht="195" customHeight="1">
       <c r="A64" s="6" t="s">
         <v>230</v>
       </c>
@@ -3494,11 +3529,11 @@
         <v>213</v>
       </c>
       <c r="K64" s="6"/>
-      <c r="L64" s="7" t="s">
+      <c r="L64" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" ht="135" customHeight="1">
       <c r="A65" s="6" t="s">
         <v>236</v>
       </c>
@@ -3526,11 +3561,11 @@
       <c r="J65" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="L65" s="7" t="s">
+      <c r="L65" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="8" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" s="8" customFormat="1" ht="225" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>243</v>
       </c>
@@ -3560,11 +3595,11 @@
         <v>213</v>
       </c>
       <c r="K66" s="1"/>
-      <c r="L66" s="7" t="s">
+      <c r="L66" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="304.5">
       <c r="A67" s="1" t="s">
         <v>262</v>
       </c>
@@ -3596,7 +3631,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="348" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="348">
       <c r="A68" s="1" t="s">
         <v>263</v>
       </c>
@@ -3628,7 +3663,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" s="5" customFormat="1" ht="26">
       <c r="A69" s="12" t="s">
         <v>372</v>
       </c>
@@ -3642,8 +3677,9 @@
       <c r="I69" s="14"/>
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
-    </row>
-    <row r="70" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="L69" s="13"/>
+    </row>
+    <row r="70" spans="1:12" ht="101.5">
       <c r="A70" s="6" t="s">
         <v>371</v>
       </c>
@@ -3666,14 +3702,18 @@
       <c r="H70" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="I70" s="20"/>
+      <c r="I70" s="20" t="s">
+        <v>407</v>
+      </c>
       <c r="J70" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
-    </row>
-    <row r="71" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="L70" s="22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="72.5">
       <c r="A71" s="6" t="s">
         <v>373</v>
       </c>
@@ -3696,14 +3736,18 @@
       <c r="H71" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="I71" s="20"/>
+      <c r="I71" s="20" t="s">
+        <v>408</v>
+      </c>
       <c r="J71" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-    </row>
-    <row r="72" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="L71" s="23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="101.5">
       <c r="A72" s="6" t="s">
         <v>374</v>
       </c>
@@ -3726,14 +3770,16 @@
       <c r="H72" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="I72" s="20"/>
+      <c r="I72" s="20" t="s">
+        <v>409</v>
+      </c>
       <c r="J72" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-    </row>
-    <row r="73" spans="1:12" ht="145" x14ac:dyDescent="0.35">
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="1:12" ht="145">
       <c r="A73" s="6" t="s">
         <v>375</v>
       </c>
@@ -3761,9 +3807,9 @@
         <v>277</v>
       </c>
       <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
-    </row>
-    <row r="74" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="1:12" ht="116">
       <c r="A74" s="6" t="s">
         <v>376</v>
       </c>
@@ -3791,9 +3837,9 @@
         <v>277</v>
       </c>
       <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-    </row>
-    <row r="75" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="1:12" ht="116">
       <c r="A75" s="6" t="s">
         <v>377</v>
       </c>
@@ -3821,9 +3867,9 @@
         <v>277</v>
       </c>
       <c r="K75" s="20"/>
-      <c r="L75" s="20"/>
-    </row>
-    <row r="76" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="1:12" ht="116">
       <c r="A76" s="6" t="s">
         <v>378</v>
       </c>
@@ -3851,9 +3897,9 @@
         <v>277</v>
       </c>
       <c r="K76" s="20"/>
-      <c r="L76" s="20"/>
-    </row>
-    <row r="77" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="1:12" ht="101.5">
       <c r="A77" s="6" t="s">
         <v>379</v>
       </c>
@@ -3881,9 +3927,9 @@
         <v>277</v>
       </c>
       <c r="K77" s="20"/>
-      <c r="L77" s="20"/>
-    </row>
-    <row r="78" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="1:12" ht="116">
       <c r="A78" s="6" t="s">
         <v>380</v>
       </c>
@@ -3913,9 +3959,9 @@
         <v>277</v>
       </c>
       <c r="K78" s="20"/>
-      <c r="L78" s="20"/>
-    </row>
-    <row r="79" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="1:12" ht="87">
       <c r="A79" s="6" t="s">
         <v>381</v>
       </c>
@@ -3943,9 +3989,9 @@
       <c r="I79" s="20"/>
       <c r="J79" s="6"/>
       <c r="K79" s="20"/>
-      <c r="L79" s="20"/>
-    </row>
-    <row r="80" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="1:12" ht="116">
       <c r="A80" s="6" t="s">
         <v>382</v>
       </c>
@@ -3975,9 +4021,9 @@
         <v>277</v>
       </c>
       <c r="K80" s="20"/>
-      <c r="L80" s="20"/>
-    </row>
-    <row r="81" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="1:12" ht="101.5">
       <c r="A81" s="6" t="s">
         <v>383</v>
       </c>
@@ -4005,9 +4051,9 @@
         <v>277</v>
       </c>
       <c r="K81" s="20"/>
-      <c r="L81" s="20"/>
-    </row>
-    <row r="82" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="1:12" ht="116">
       <c r="A82" s="6" t="s">
         <v>384</v>
       </c>
@@ -4035,9 +4081,9 @@
         <v>277</v>
       </c>
       <c r="K82" s="20"/>
-      <c r="L82" s="20"/>
-    </row>
-    <row r="83" spans="1:12" ht="145" x14ac:dyDescent="0.35">
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" spans="1:12" ht="145">
       <c r="A83" s="6" t="s">
         <v>385</v>
       </c>
@@ -4067,9 +4113,9 @@
         <v>277</v>
       </c>
       <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
-    </row>
-    <row r="84" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" spans="1:12" ht="159.5">
       <c r="A84" s="6" t="s">
         <v>386</v>
       </c>
@@ -4099,9 +4145,9 @@
         <v>277</v>
       </c>
       <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-    </row>
-    <row r="85" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="L84" s="6"/>
+    </row>
+    <row r="85" spans="1:12" ht="159.5">
       <c r="A85" s="6" t="s">
         <v>387</v>
       </c>
@@ -4131,9 +4177,9 @@
         <v>277</v>
       </c>
       <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
-    </row>
-    <row r="86" spans="1:12" ht="145" x14ac:dyDescent="0.35">
+      <c r="L85" s="6"/>
+    </row>
+    <row r="86" spans="1:12" ht="145">
       <c r="A86" s="6" t="s">
         <v>388</v>
       </c>
@@ -4163,9 +4209,9 @@
         <v>277</v>
       </c>
       <c r="K86" s="20"/>
-      <c r="L86" s="20"/>
-    </row>
-    <row r="87" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="L86" s="6"/>
+    </row>
+    <row r="87" spans="1:12" ht="159.5">
       <c r="A87" s="6" t="s">
         <v>389</v>
       </c>
@@ -4195,9 +4241,9 @@
         <v>277</v>
       </c>
       <c r="K87" s="20"/>
-      <c r="L87" s="20"/>
-    </row>
-    <row r="88" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="L87" s="6"/>
+    </row>
+    <row r="88" spans="1:12" ht="159.5">
       <c r="A88" s="6" t="s">
         <v>390</v>
       </c>
@@ -4227,9 +4273,9 @@
         <v>277</v>
       </c>
       <c r="K88" s="20"/>
-      <c r="L88" s="20"/>
-    </row>
-    <row r="89" spans="1:12" ht="145" x14ac:dyDescent="0.35">
+      <c r="L88" s="6"/>
+    </row>
+    <row r="89" spans="1:12" ht="145">
       <c r="A89" s="6" t="s">
         <v>391</v>
       </c>
@@ -4259,9 +4305,9 @@
         <v>277</v>
       </c>
       <c r="K89" s="20"/>
-      <c r="L89" s="20"/>
-    </row>
-    <row r="90" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="L89" s="6"/>
+    </row>
+    <row r="90" spans="1:12" ht="130.5">
       <c r="A90" s="6" t="s">
         <v>392</v>
       </c>
@@ -4291,9 +4337,9 @@
         <v>277</v>
       </c>
       <c r="K90" s="20"/>
-      <c r="L90" s="20"/>
-    </row>
-    <row r="91" spans="1:12" ht="145" x14ac:dyDescent="0.35">
+      <c r="L90" s="6"/>
+    </row>
+    <row r="91" spans="1:12" ht="145">
       <c r="A91" s="6" t="s">
         <v>393</v>
       </c>
@@ -4323,9 +4369,9 @@
         <v>277</v>
       </c>
       <c r="K91" s="20"/>
-      <c r="L91" s="20"/>
-    </row>
-    <row r="92" spans="1:12" ht="145" x14ac:dyDescent="0.35">
+      <c r="L91" s="6"/>
+    </row>
+    <row r="92" spans="1:12" ht="145">
       <c r="A92" s="6" t="s">
         <v>394</v>
       </c>
@@ -4355,9 +4401,9 @@
         <v>277</v>
       </c>
       <c r="K92" s="20"/>
-      <c r="L92" s="20"/>
-    </row>
-    <row r="93" spans="1:12" ht="145" x14ac:dyDescent="0.35">
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" spans="1:12" ht="145">
       <c r="A93" s="6" t="s">
         <v>395</v>
       </c>
@@ -4387,9 +4433,9 @@
         <v>277</v>
       </c>
       <c r="K93" s="20"/>
-      <c r="L93" s="20"/>
-    </row>
-    <row r="94" spans="1:12" ht="145" x14ac:dyDescent="0.35">
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="1:12" ht="145">
       <c r="A94" s="6" t="s">
         <v>396</v>
       </c>
@@ -4419,7 +4465,7 @@
         <v>277</v>
       </c>
       <c r="K94" s="20"/>
-      <c r="L94" s="20"/>
+      <c r="L94" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="419">
   <si>
     <t>Descreption</t>
   </si>
@@ -962,9 +962,6 @@
 3- Click on Register
 4- Fill in the form
 5-Click on Submit button</t>
-  </si>
-  <si>
-    <t>When clicking on submit button, the data entered by user should be sent to the database.</t>
   </si>
   <si>
     <t>Verify that the user info added to the database</t>
@@ -1555,7 +1552,38 @@
     <t>There are no * beside the mandatory fields</t>
   </si>
   <si>
-    <t>Server error page comes up when pressing on submit button</t>
+    <t>When clicking on submit button, the data entered by user should be sent to the database.
+And the user will be redirected to the home page</t>
+  </si>
+  <si>
+    <t>The user has been successfully redirected to the home page</t>
+  </si>
+  <si>
+    <t>The user has been added succesfully to the database</t>
+  </si>
+  <si>
+    <t>The error message displayed successfully</t>
+  </si>
+  <si>
+    <t>The system accepted the username and added it to the database</t>
+  </si>
+  <si>
+    <t>The username has been accepted successfully by the system and added to the database</t>
+  </si>
+  <si>
+    <t>The system refused to proceed while leaving the optional fields empty</t>
+  </si>
+  <si>
+    <t>The system accepted the username although it is already existing</t>
+  </si>
+  <si>
+    <t>The system generated an error message to tell the user that the passwords entered don't match</t>
+  </si>
+  <si>
+    <t>The system refused to proceed and displayed the error message</t>
+  </si>
+  <si>
+    <t>The system  proceeded successfully with submitting the form</t>
   </si>
 </sst>
 </file>
@@ -2029,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView tabSelected="1" topLeftCell="D92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2073,7 +2101,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>0</v>
@@ -3317,7 +3345,7 @@
         <v>274</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>212</v>
@@ -3383,7 +3411,7 @@
         <v>274</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>221</v>
@@ -3449,7 +3477,7 @@
         <v>274</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="6" t="s">
@@ -3482,7 +3510,7 @@
         <v>274</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="6" t="s">
@@ -3516,7 +3544,7 @@
         <v>274</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="6" t="s">
@@ -3550,7 +3578,7 @@
         <v>274</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>242</v>
@@ -3616,7 +3644,7 @@
         <v>274</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>266</v>
@@ -3648,7 +3676,7 @@
         <v>274</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>268</v>
@@ -3665,7 +3693,7 @@
     </row>
     <row r="69" spans="1:12" s="5" customFormat="1" ht="26">
       <c r="A69" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -3681,7 +3709,7 @@
     </row>
     <row r="70" spans="1:12" ht="101.5">
       <c r="A70" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>227</v>
@@ -3703,7 +3731,7 @@
         <v>276</v>
       </c>
       <c r="I70" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J70" s="6" t="s">
         <v>277</v>
@@ -3715,7 +3743,7 @@
     </row>
     <row r="71" spans="1:12" ht="72.5">
       <c r="A71" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>227</v>
@@ -3737,7 +3765,7 @@
         <v>281</v>
       </c>
       <c r="I71" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J71" s="6" t="s">
         <v>277</v>
@@ -3749,7 +3777,7 @@
     </row>
     <row r="72" spans="1:12" ht="101.5">
       <c r="A72" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>282</v>
@@ -3768,7 +3796,7 @@
       </c>
       <c r="G72" s="20"/>
       <c r="H72" s="20" t="s">
-        <v>286</v>
+        <v>408</v>
       </c>
       <c r="I72" s="20" t="s">
         <v>409</v>
@@ -3777,695 +3805,785 @@
         <v>277</v>
       </c>
       <c r="K72" s="20"/>
-      <c r="L72" s="6"/>
+      <c r="L72" s="22" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="73" spans="1:12" ht="145">
       <c r="A73" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C73" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D73" s="20" t="s">
         <v>287</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>288</v>
       </c>
       <c r="E73" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="I73" s="20"/>
+        <v>288</v>
+      </c>
+      <c r="I73" s="20" t="s">
+        <v>410</v>
+      </c>
       <c r="J73" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K73" s="20"/>
-      <c r="L73" s="6"/>
+      <c r="L73" s="22" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="74" spans="1:12" ht="116">
       <c r="A74" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C74" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="D74" s="20" t="s">
         <v>290</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>291</v>
       </c>
       <c r="E74" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G74" s="20"/>
       <c r="H74" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="I74" s="20"/>
+        <v>292</v>
+      </c>
+      <c r="I74" s="20" t="s">
+        <v>411</v>
+      </c>
       <c r="J74" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K74" s="20"/>
-      <c r="L74" s="6"/>
+      <c r="L74" s="22" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="75" spans="1:12" ht="116">
       <c r="A75" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C75" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D75" s="20" t="s">
         <v>294</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>295</v>
       </c>
       <c r="E75" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G75" s="20"/>
       <c r="H75" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="I75" s="20"/>
+        <v>296</v>
+      </c>
+      <c r="I75" s="20" t="s">
+        <v>411</v>
+      </c>
       <c r="J75" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K75" s="20"/>
-      <c r="L75" s="6"/>
+      <c r="L75" s="22" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="76" spans="1:12" ht="116">
       <c r="A76" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C76" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="D76" s="20" t="s">
         <v>298</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>299</v>
       </c>
       <c r="E76" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G76" s="20"/>
       <c r="H76" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="I76" s="20"/>
+        <v>300</v>
+      </c>
+      <c r="I76" s="20" t="s">
+        <v>411</v>
+      </c>
       <c r="J76" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K76" s="20"/>
-      <c r="L76" s="6"/>
+      <c r="L76" s="22" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="77" spans="1:12" ht="101.5">
       <c r="A77" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C77" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D77" s="20" t="s">
         <v>302</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>303</v>
       </c>
       <c r="E77" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G77" s="20"/>
       <c r="H77" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="I77" s="20"/>
+        <v>304</v>
+      </c>
+      <c r="I77" s="20" t="s">
+        <v>411</v>
+      </c>
       <c r="J77" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K77" s="20"/>
-      <c r="L77" s="6"/>
+      <c r="L77" s="22" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="78" spans="1:12" ht="116">
       <c r="A78" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C78" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="D78" s="20" t="s">
         <v>306</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>307</v>
       </c>
       <c r="E78" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F78" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="G78" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="G78" s="20" t="s">
+      <c r="H78" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="H78" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="I78" s="20"/>
+      <c r="I78" s="20" t="s">
+        <v>412</v>
+      </c>
       <c r="J78" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K78" s="20"/>
-      <c r="L78" s="6"/>
+      <c r="L78" s="23" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="79" spans="1:12" ht="87">
       <c r="A79" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C79" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="D79" s="20" t="s">
         <v>311</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>312</v>
       </c>
       <c r="E79" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F79" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="G79" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="G79" s="20" t="s">
-        <v>314</v>
-      </c>
       <c r="H79" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="I79" s="20"/>
+        <v>309</v>
+      </c>
+      <c r="I79" s="20" t="s">
+        <v>412</v>
+      </c>
       <c r="J79" s="6"/>
       <c r="K79" s="20"/>
-      <c r="L79" s="6"/>
+      <c r="L79" s="23" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="80" spans="1:12" ht="116">
       <c r="A80" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C80" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="D80" s="20" t="s">
         <v>315</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>316</v>
       </c>
       <c r="E80" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F80" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="G80" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="G80" s="20" t="s">
+      <c r="H80" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="H80" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="I80" s="20"/>
+      <c r="I80" s="20" t="s">
+        <v>413</v>
+      </c>
       <c r="J80" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K80" s="20"/>
-      <c r="L80" s="6"/>
+      <c r="L80" s="22" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="81" spans="1:12" ht="101.5">
       <c r="A81" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C81" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="D81" s="20" t="s">
         <v>320</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>321</v>
       </c>
       <c r="E81" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G81" s="20"/>
       <c r="H81" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="I81" s="20"/>
+        <v>318</v>
+      </c>
+      <c r="I81" s="20" t="s">
+        <v>414</v>
+      </c>
       <c r="J81" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K81" s="20"/>
-      <c r="L81" s="6"/>
+      <c r="L81" s="23" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="82" spans="1:12" ht="116">
       <c r="A82" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C82" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="D82" s="20" t="s">
         <v>323</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>324</v>
       </c>
       <c r="E82" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G82" s="20"/>
       <c r="H82" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="I82" s="20"/>
+        <v>325</v>
+      </c>
+      <c r="I82" s="20" t="s">
+        <v>415</v>
+      </c>
       <c r="J82" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K82" s="20"/>
-      <c r="L82" s="6"/>
+      <c r="L82" s="23" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="83" spans="1:12" ht="145">
       <c r="A83" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C83" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="D83" s="20" t="s">
         <v>327</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>328</v>
       </c>
       <c r="E83" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F83" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="G83" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="G83" s="20" t="s">
+      <c r="H83" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="H83" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="I83" s="20"/>
+      <c r="I83" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="J83" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K83" s="20"/>
-      <c r="L83" s="6"/>
+      <c r="L83" s="22" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="84" spans="1:12" ht="159.5">
       <c r="A84" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C84" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="D84" s="20" t="s">
         <v>332</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>333</v>
       </c>
       <c r="E84" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F84" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="G84" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="G84" s="20" t="s">
+      <c r="H84" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="H84" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="I84" s="20"/>
+      <c r="I84" s="20" t="s">
+        <v>417</v>
+      </c>
       <c r="J84" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K84" s="20"/>
-      <c r="L84" s="6"/>
+      <c r="L84" s="22" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="85" spans="1:12" ht="159.5">
       <c r="A85" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E85" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F85" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="G85" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="G85" s="20" t="s">
-        <v>339</v>
-      </c>
       <c r="H85" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="I85" s="20"/>
+        <v>335</v>
+      </c>
+      <c r="I85" s="20" t="s">
+        <v>417</v>
+      </c>
       <c r="J85" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K85" s="20"/>
-      <c r="L85" s="6"/>
+      <c r="L85" s="22" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="86" spans="1:12" ht="145">
       <c r="A86" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C86" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="D86" s="20" t="s">
         <v>340</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>341</v>
       </c>
       <c r="E86" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F86" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="G86" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="G86" s="20" t="s">
-        <v>343</v>
-      </c>
       <c r="H86" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="I86" s="20"/>
+        <v>335</v>
+      </c>
+      <c r="I86" s="20" t="s">
+        <v>417</v>
+      </c>
       <c r="J86" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K86" s="20"/>
-      <c r="L86" s="6"/>
+      <c r="L86" s="22" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="87" spans="1:12" ht="159.5">
       <c r="A87" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C87" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="D87" s="20" t="s">
         <v>344</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>345</v>
       </c>
       <c r="E87" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F87" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="G87" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="G87" s="20" t="s">
-        <v>347</v>
-      </c>
       <c r="H87" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="I87" s="20"/>
+        <v>335</v>
+      </c>
+      <c r="I87" s="20" t="s">
+        <v>417</v>
+      </c>
       <c r="J87" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K87" s="20"/>
-      <c r="L87" s="6"/>
+      <c r="L87" s="22" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="88" spans="1:12" ht="159.5">
       <c r="A88" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E88" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F88" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="G88" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="G88" s="20" t="s">
-        <v>350</v>
-      </c>
       <c r="H88" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="I88" s="20"/>
+        <v>335</v>
+      </c>
+      <c r="I88" s="20" t="s">
+        <v>417</v>
+      </c>
       <c r="J88" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K88" s="20"/>
-      <c r="L88" s="6"/>
+      <c r="L88" s="22" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="89" spans="1:12" ht="145">
       <c r="A89" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C89" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D89" s="20" t="s">
         <v>351</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>352</v>
       </c>
       <c r="E89" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F89" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="G89" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="G89" s="20" t="s">
-        <v>354</v>
-      </c>
       <c r="H89" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="I89" s="20"/>
+        <v>335</v>
+      </c>
+      <c r="I89" s="20" t="s">
+        <v>417</v>
+      </c>
       <c r="J89" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K89" s="20"/>
-      <c r="L89" s="6"/>
+      <c r="L89" s="22" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="90" spans="1:12" ht="130.5">
       <c r="A90" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C90" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="D90" s="20" t="s">
         <v>355</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>356</v>
       </c>
       <c r="E90" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F90" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="G90" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="G90" s="20" t="s">
+      <c r="H90" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="H90" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="I90" s="20"/>
+      <c r="I90" s="20" t="s">
+        <v>418</v>
+      </c>
       <c r="J90" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K90" s="20"/>
-      <c r="L90" s="6"/>
+      <c r="L90" s="22" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="91" spans="1:12" ht="145">
       <c r="A91" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C91" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="D91" s="20" t="s">
         <v>360</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>361</v>
       </c>
       <c r="E91" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F91" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="G91" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="G91" s="20" t="s">
+      <c r="H91" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="H91" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="I91" s="20"/>
+      <c r="I91" s="20" t="s">
+        <v>417</v>
+      </c>
       <c r="J91" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K91" s="20"/>
-      <c r="L91" s="6"/>
+      <c r="L91" s="22" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="92" spans="1:12" ht="145">
       <c r="A92" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E92" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H92" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="I92" s="20"/>
+        <v>363</v>
+      </c>
+      <c r="I92" s="20" t="s">
+        <v>417</v>
+      </c>
       <c r="J92" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K92" s="20"/>
-      <c r="L92" s="6"/>
+      <c r="L92" s="22" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="93" spans="1:12" ht="145">
       <c r="A93" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E93" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H93" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="I93" s="20"/>
+        <v>363</v>
+      </c>
+      <c r="I93" s="20" t="s">
+        <v>417</v>
+      </c>
       <c r="J93" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K93" s="20"/>
-      <c r="L93" s="6"/>
+      <c r="L93" s="22" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="94" spans="1:12" ht="145">
       <c r="A94" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E94" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H94" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="I94" s="20"/>
+        <v>358</v>
+      </c>
+      <c r="I94" s="20" t="s">
+        <v>418</v>
+      </c>
       <c r="J94" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K94" s="20"/>
-      <c r="L94" s="6"/>
+      <c r="L94" s="22" t="s">
+        <v>258</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="9360"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="7788" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="275">
   <si>
     <t>Descreption</t>
   </si>
@@ -739,9 +739,6 @@
     <t>verify that user only upload articles that are english</t>
   </si>
   <si>
-    <t>check that vedio format that is uploaded is MP4 only</t>
-  </si>
-  <si>
     <t>check that vedio uploaded can be any size</t>
   </si>
   <si>
@@ -870,6 +867,107 @@
   <si>
     <t>1-find the Recently uploaded articles below the logo
 2- check the Introduction to Embeded articles position</t>
+  </si>
+  <si>
+    <t>1-find the navigation bar on the top of the page
+2- click on " home " button</t>
+  </si>
+  <si>
+    <t>Erro page appears</t>
+  </si>
+  <si>
+    <t>the Recently uploaded articles appears in the page in it's position</t>
+  </si>
+  <si>
+    <t>the " Testing " article appears in the page in it's position</t>
+  </si>
+  <si>
+    <t>the " Mobile " article appears in the page in it's position</t>
+  </si>
+  <si>
+    <t>the  Networks " article appears in the page in it's position</t>
+  </si>
+  <si>
+    <t>the " Introduction to Embeded " article appears in the page in it's position</t>
+  </si>
+  <si>
+    <t>the " Introduction to ISTQB " article appears in the page in it's position</t>
+  </si>
+  <si>
+    <t>1-find the navigation bar on the top of the page
+2- click on " software " button</t>
+  </si>
+  <si>
+    <t>1-find the navigation bar on the top of the page
+2- click on " Networking " button</t>
+  </si>
+  <si>
+    <t>1-find the navigation bar on the top of the page
+2- click on " Embeded Syaytems " button</t>
+  </si>
+  <si>
+    <t>1-find the navigation bar on the top of the page
+2- click on " Biotechnology " button</t>
+  </si>
+  <si>
+    <t>1-find the navigation bar on the top of the page
+2- click on " My profile " button</t>
+  </si>
+  <si>
+    <t>1-find the navigation bar on the top of the page
+2- click on " + " button</t>
+  </si>
+  <si>
+    <t>1-find the navigation bar on the top of the page
+2- click on " + " button
+3- write the tittle and field of the article
+ 4- upload an article in English language</t>
+  </si>
+  <si>
+    <t>1-find the navigation bar on the top of the page
+2- click on " + " button
+3- write the tittle and field of the article
+ 4- upload an article in Arabic language</t>
+  </si>
+  <si>
+    <t>system reject the upload process</t>
+  </si>
+  <si>
+    <t>sustem accept the upload process</t>
+  </si>
+  <si>
+    <t>check that system reject other vedio formats</t>
+  </si>
+  <si>
+    <t>verify that vedio format that is uploaded is MP4 only</t>
+  </si>
+  <si>
+    <t>verify that system reject other formats than MP4</t>
+  </si>
+  <si>
+    <t>check that system reject other audio formats</t>
+  </si>
+  <si>
+    <t>verify that system reject other formats than MP3</t>
+  </si>
+  <si>
+    <t>1-find the navigation bar on the top of the page
+2- click on " + " button
+3- write the tittle and field of the article
+ 4- upload an article in MP4 format</t>
+  </si>
+  <si>
+    <t>1-find the navigation bar on the top of the page
+2- click on " + " button
+3- write the tittle and field of the article
+ 4- upload an article in MPv format</t>
+  </si>
+  <si>
+    <t>1-find the navigation bar on the top of the page
+2- click on " + " button
+3- write the tittle and field of the article
+ 4- upload an article in MPv format
+5- upload the vedio with size 500 MB</t>
   </si>
 </sst>
 </file>
@@ -1301,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD59"/>
+  <dimension ref="A1:XFD62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -4041,7 +4139,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1208" ht="63" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1208" ht="42" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4064,7 +4162,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:1208" ht="63" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1208" ht="42" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
@@ -4087,7 +4185,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:1208" ht="63" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1208" ht="42" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
@@ -4299,10 +4397,13 @@
         <v>194</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>240</v>
+      <c r="G19" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>105</v>
@@ -4311,7 +4412,7 @@
         <v>41</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:16384" ht="85.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -4328,10 +4429,10 @@
         <v>81</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>107</v>
@@ -4340,7 +4441,7 @@
         <v>41</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:16384" ht="105" x14ac:dyDescent="0.4">
@@ -4357,10 +4458,10 @@
         <v>82</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>106</v>
@@ -4369,7 +4470,7 @@
         <v>41</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:16384" ht="84" x14ac:dyDescent="0.4">
@@ -4386,10 +4487,10 @@
         <v>188</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>108</v>
@@ -4398,7 +4499,7 @@
         <v>41</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:16384" ht="84" x14ac:dyDescent="0.4">
@@ -4409,23 +4510,25 @@
         <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>216</v>
-      </c>
       <c r="E23" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="H23" s="15"/>
+        <v>243</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>251</v>
+      </c>
       <c r="J23" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:16384" ht="88.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -4436,23 +4539,25 @@
         <v>14</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="H24" s="15"/>
+        <v>244</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>252</v>
+      </c>
       <c r="J24" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:16384" ht="86.4" customHeight="1" x14ac:dyDescent="0.4">
@@ -4463,23 +4568,25 @@
         <v>14</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="H25" s="15"/>
+        <v>245</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>253</v>
+      </c>
       <c r="J25" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:16384" ht="87" customHeight="1" x14ac:dyDescent="0.4">
@@ -4490,23 +4597,25 @@
         <v>14</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="H26" s="15"/>
+        <v>246</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>254</v>
+      </c>
       <c r="J26" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:16384" ht="91.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -4517,25 +4626,27 @@
         <v>14</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="H27" s="15" t="s">
+        <v>256</v>
+      </c>
       <c r="I27" s="5"/>
       <c r="J27" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -20911,7 +21022,7 @@
       <c r="XFC27" s="5"/>
       <c r="XFD27" s="5"/>
     </row>
-    <row r="28" spans="1:16384" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16384" ht="97.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>75</v>
       </c>
@@ -20919,23 +21030,25 @@
         <v>14</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="H28" s="15"/>
+        <v>248</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>255</v>
+      </c>
       <c r="J28" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:16384" ht="84" x14ac:dyDescent="0.4">
@@ -20949,19 +21062,25 @@
         <v>54</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>109</v>
       </c>
+      <c r="I29" s="14" t="s">
+        <v>250</v>
+      </c>
       <c r="J29" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:16384" ht="84" x14ac:dyDescent="0.4">
@@ -20978,7 +21097,10 @@
         <v>83</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>110</v>
@@ -20987,7 +21109,7 @@
         <v>41</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:16384" ht="84" x14ac:dyDescent="0.4">
@@ -21004,7 +21126,10 @@
         <v>84</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="H31" s="15" t="s">
         <v>111</v>
@@ -21013,7 +21138,7 @@
         <v>41</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:16384" ht="84" x14ac:dyDescent="0.4">
@@ -21030,7 +21155,10 @@
         <v>85</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>112</v>
@@ -21039,7 +21167,7 @@
         <v>41</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="84" x14ac:dyDescent="0.4">
@@ -21056,7 +21184,10 @@
         <v>86</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>113</v>
@@ -21065,7 +21196,7 @@
         <v>41</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="84" x14ac:dyDescent="0.4">
@@ -21082,7 +21213,10 @@
         <v>87</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="H34" s="15" t="s">
         <v>114</v>
@@ -21091,7 +21225,7 @@
         <v>41</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="84" x14ac:dyDescent="0.4">
@@ -21108,7 +21242,10 @@
         <v>209</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="H35" s="15" t="s">
         <v>115</v>
@@ -21117,10 +21254,10 @@
         <v>41</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="84" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" ht="105" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
         <v>205</v>
       </c>
@@ -21134,583 +21271,582 @@
         <v>210</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="H36" s="15"/>
+        <v>238</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>266</v>
+      </c>
       <c r="J36" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="84" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="H37" s="15"/>
+        <v>238</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>265</v>
+      </c>
       <c r="J37" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" ht="105" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="H38" s="15"/>
+        <v>238</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>266</v>
+      </c>
       <c r="J38" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="84" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" ht="105" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>198</v>
+        <v>267</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="H39" s="15"/>
+        <v>238</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>265</v>
+      </c>
       <c r="J39" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="84" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" ht="93.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>59</v>
+      <c r="C40" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>274</v>
       </c>
       <c r="H40" s="15"/>
       <c r="J40" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="84" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>59</v>
+      <c r="C41" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>116</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="H41" s="15"/>
       <c r="J41" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="84" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>62</v>
+        <v>270</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>117</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="H42" s="15"/>
       <c r="J42" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="84" x14ac:dyDescent="0.4">
       <c r="A43" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>63</v>
+      <c r="C43" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>118</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="H43" s="15"/>
       <c r="J43" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" ht="84" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>64</v>
+      <c r="C44" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" ht="84" x14ac:dyDescent="0.4">
       <c r="A45" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="H45" s="15"/>
+        <v>238</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="J45" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" ht="84" x14ac:dyDescent="0.4">
       <c r="A46" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>217</v>
+        <v>63</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="H46" s="15"/>
+        <v>238</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="J46" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>219</v>
+        <v>64</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>224</v>
+        <v>89</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="H47" s="15"/>
+        <v>238</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>119</v>
+      </c>
       <c r="J47" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H48" s="15"/>
       <c r="J48" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:126" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H49" s="15"/>
       <c r="J49" s="4" t="s">
         <v>41</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:126" s="7" customFormat="1" ht="36.6" x14ac:dyDescent="0.4">
-      <c r="A50" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="1"/>
-      <c r="AH50" s="1"/>
-      <c r="AI50" s="1"/>
-      <c r="AJ50" s="1"/>
-      <c r="AK50" s="1"/>
-      <c r="AL50" s="1"/>
-      <c r="AM50" s="1"/>
-      <c r="AN50" s="1"/>
-      <c r="AO50" s="1"/>
-      <c r="AP50" s="1"/>
-      <c r="AQ50" s="1"/>
-      <c r="AR50" s="1"/>
-      <c r="AS50" s="1"/>
-      <c r="AT50" s="1"/>
-      <c r="AU50" s="1"/>
-      <c r="AV50" s="1"/>
-      <c r="AW50" s="1"/>
-      <c r="AX50" s="1"/>
-      <c r="AY50" s="1"/>
-      <c r="AZ50" s="1"/>
-      <c r="BA50" s="1"/>
-      <c r="BB50" s="1"/>
-      <c r="BC50" s="1"/>
-      <c r="BD50" s="1"/>
-      <c r="BE50" s="1"/>
-      <c r="BF50" s="1"/>
-      <c r="BG50" s="1"/>
-      <c r="BH50" s="1"/>
-      <c r="BI50" s="1"/>
-      <c r="BJ50" s="1"/>
-      <c r="BK50" s="1"/>
-      <c r="BL50" s="1"/>
-      <c r="BM50" s="1"/>
-      <c r="BN50" s="1"/>
-      <c r="BO50" s="1"/>
-      <c r="BP50" s="1"/>
-      <c r="BQ50" s="1"/>
-      <c r="BR50" s="1"/>
-      <c r="BS50" s="1"/>
-      <c r="BT50" s="1"/>
-      <c r="BU50" s="1"/>
-      <c r="BV50" s="1"/>
-      <c r="BW50" s="1"/>
-      <c r="BX50" s="1"/>
-      <c r="BY50" s="1"/>
-      <c r="BZ50" s="1"/>
-      <c r="CA50" s="1"/>
-      <c r="CB50" s="1"/>
-      <c r="CC50" s="1"/>
-      <c r="CD50" s="1"/>
-      <c r="CE50" s="1"/>
-      <c r="CF50" s="1"/>
-      <c r="CG50" s="1"/>
-      <c r="CH50" s="1"/>
-      <c r="CI50" s="1"/>
-      <c r="CJ50" s="1"/>
-      <c r="CK50" s="1"/>
-      <c r="CL50" s="1"/>
-      <c r="CM50" s="1"/>
-      <c r="CN50" s="1"/>
-      <c r="CO50" s="1"/>
-      <c r="CP50" s="1"/>
-      <c r="CQ50" s="1"/>
-      <c r="CR50" s="1"/>
-      <c r="CS50" s="1"/>
-      <c r="CT50" s="1"/>
-      <c r="CU50" s="1"/>
-      <c r="CV50" s="1"/>
-      <c r="CW50" s="1"/>
-      <c r="CX50" s="1"/>
-      <c r="CY50" s="1"/>
-      <c r="CZ50" s="1"/>
-      <c r="DA50" s="1"/>
-      <c r="DB50" s="1"/>
-      <c r="DC50" s="1"/>
-      <c r="DD50" s="1"/>
-      <c r="DE50" s="1"/>
-      <c r="DF50" s="1"/>
-      <c r="DG50" s="1"/>
-      <c r="DH50" s="1"/>
-      <c r="DI50" s="1"/>
-      <c r="DJ50" s="1"/>
-      <c r="DK50" s="1"/>
-      <c r="DL50" s="1"/>
-      <c r="DM50" s="1"/>
-      <c r="DN50" s="1"/>
-      <c r="DO50" s="1"/>
-      <c r="DP50" s="1"/>
-      <c r="DQ50" s="1"/>
-      <c r="DR50" s="1"/>
-      <c r="DS50" s="1"/>
-      <c r="DT50" s="1"/>
-      <c r="DU50" s="1"/>
-      <c r="DV50" s="1"/>
+    <row r="50" spans="1:126" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="J50" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="51" spans="1:126" ht="232.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:126" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="J51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:126" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="J52" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:126" s="7" customFormat="1" ht="36.6" x14ac:dyDescent="0.4">
+      <c r="A53" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="1"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1"/>
+      <c r="AT53" s="1"/>
+      <c r="AU53" s="1"/>
+      <c r="AV53" s="1"/>
+      <c r="AW53" s="1"/>
+      <c r="AX53" s="1"/>
+      <c r="AY53" s="1"/>
+      <c r="AZ53" s="1"/>
+      <c r="BA53" s="1"/>
+      <c r="BB53" s="1"/>
+      <c r="BC53" s="1"/>
+      <c r="BD53" s="1"/>
+      <c r="BE53" s="1"/>
+      <c r="BF53" s="1"/>
+      <c r="BG53" s="1"/>
+      <c r="BH53" s="1"/>
+      <c r="BI53" s="1"/>
+      <c r="BJ53" s="1"/>
+      <c r="BK53" s="1"/>
+      <c r="BL53" s="1"/>
+      <c r="BM53" s="1"/>
+      <c r="BN53" s="1"/>
+      <c r="BO53" s="1"/>
+      <c r="BP53" s="1"/>
+      <c r="BQ53" s="1"/>
+      <c r="BR53" s="1"/>
+      <c r="BS53" s="1"/>
+      <c r="BT53" s="1"/>
+      <c r="BU53" s="1"/>
+      <c r="BV53" s="1"/>
+      <c r="BW53" s="1"/>
+      <c r="BX53" s="1"/>
+      <c r="BY53" s="1"/>
+      <c r="BZ53" s="1"/>
+      <c r="CA53" s="1"/>
+      <c r="CB53" s="1"/>
+      <c r="CC53" s="1"/>
+      <c r="CD53" s="1"/>
+      <c r="CE53" s="1"/>
+      <c r="CF53" s="1"/>
+      <c r="CG53" s="1"/>
+      <c r="CH53" s="1"/>
+      <c r="CI53" s="1"/>
+      <c r="CJ53" s="1"/>
+      <c r="CK53" s="1"/>
+      <c r="CL53" s="1"/>
+      <c r="CM53" s="1"/>
+      <c r="CN53" s="1"/>
+      <c r="CO53" s="1"/>
+      <c r="CP53" s="1"/>
+      <c r="CQ53" s="1"/>
+      <c r="CR53" s="1"/>
+      <c r="CS53" s="1"/>
+      <c r="CT53" s="1"/>
+      <c r="CU53" s="1"/>
+      <c r="CV53" s="1"/>
+      <c r="CW53" s="1"/>
+      <c r="CX53" s="1"/>
+      <c r="CY53" s="1"/>
+      <c r="CZ53" s="1"/>
+      <c r="DA53" s="1"/>
+      <c r="DB53" s="1"/>
+      <c r="DC53" s="1"/>
+      <c r="DD53" s="1"/>
+      <c r="DE53" s="1"/>
+      <c r="DF53" s="1"/>
+      <c r="DG53" s="1"/>
+      <c r="DH53" s="1"/>
+      <c r="DI53" s="1"/>
+      <c r="DJ53" s="1"/>
+      <c r="DK53" s="1"/>
+      <c r="DL53" s="1"/>
+      <c r="DM53" s="1"/>
+      <c r="DN53" s="1"/>
+      <c r="DO53" s="1"/>
+      <c r="DP53" s="1"/>
+      <c r="DQ53" s="1"/>
+      <c r="DR53" s="1"/>
+      <c r="DS53" s="1"/>
+      <c r="DT53" s="1"/>
+      <c r="DU53" s="1"/>
+      <c r="DV53" s="1"/>
+    </row>
+    <row r="54" spans="1:126" ht="232.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:126" ht="232.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="53" spans="1:126" ht="261.60000000000002" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="I53" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="54" spans="1:126" ht="194.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>131</v>
@@ -21719,32 +21855,30 @@
         <v>41</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="55" spans="1:126" s="9" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>153</v>
+    <row r="55" spans="1:126" ht="232.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E55" s="5"/>
+        <v>136</v>
+      </c>
       <c r="F55" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="G55" s="5"/>
+        <v>165</v>
+      </c>
       <c r="H55" s="15" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>131</v>
@@ -21752,33 +21886,31 @@
       <c r="K55" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L55" s="8" t="s">
+      <c r="L55" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:126" s="9" customFormat="1" ht="299.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>147</v>
+    <row r="56" spans="1:126" ht="261.60000000000002" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E56" s="5"/>
+        <v>137</v>
+      </c>
       <c r="F56" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G56" s="5"/>
+        <v>184</v>
+      </c>
       <c r="H56" s="15" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>131</v>
@@ -21786,33 +21918,31 @@
       <c r="K56" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L56" s="8" t="s">
+      <c r="L56" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:126" s="9" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>149</v>
+    <row r="57" spans="1:126" ht="194.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E57" s="5"/>
+        <v>144</v>
+      </c>
       <c r="F57" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G57" s="5"/>
+        <v>185</v>
+      </c>
       <c r="H57" s="15" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>131</v>
@@ -21820,31 +21950,33 @@
       <c r="K57" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L57" s="8" t="s">
-        <v>176</v>
+      <c r="L57" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:126" ht="208.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:126" s="9" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="8" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>156</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="E58" s="5"/>
       <c r="F58" s="5" t="s">
-        <v>180</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G58" s="5"/>
       <c r="H58" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>131</v>
@@ -21856,29 +21988,29 @@
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:126" s="10" customFormat="1" ht="287.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>162</v>
+    <row r="59" spans="1:126" s="9" customFormat="1" ht="299.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E59" s="6"/>
+        <v>151</v>
+      </c>
+      <c r="E59" s="5"/>
       <c r="F59" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G59" s="6"/>
+        <v>181</v>
+      </c>
+      <c r="G59" s="5"/>
       <c r="H59" s="15" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>131</v>
@@ -21887,6 +22019,106 @@
         <v>41</v>
       </c>
       <c r="L59" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:126" s="9" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:126" ht="208.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:126" s="10" customFormat="1" ht="287.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L62" s="8" t="s">
         <v>176</v>
       </c>
     </row>
@@ -21894,7 +22126,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A18:L18"/>
-    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="A53:L53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="7788" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="7788" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="296">
   <si>
     <t>Descreption</t>
   </si>
@@ -960,14 +960,96 @@
     <t>1-find the navigation bar on the top of the page
 2- click on " + " button
 3- write the tittle and field of the article
- 4- upload an article in MPv format</t>
+ 4- upload an article in MPv format
+5- upload the vedio with size 500 MB</t>
   </si>
   <si>
     <t>1-find the navigation bar on the top of the page
 2- click on " + " button
 3- write the tittle and field of the article
- 4- upload an article in MPv format
-5- upload the vedio with size 500 MB</t>
+ 4- upload an article in MPV format</t>
+  </si>
+  <si>
+    <t>1-find the navigation bar on the top of the page
+2- click on " + " button
+3- write the tittle and field of the article
+ 4- upload an article in MP3 format</t>
+  </si>
+  <si>
+    <t>1-find the navigation bar on the top of the page
+2- click on " + " button
+3- write the tittle and field of the article
+ 4- upload an article in WAV format</t>
+  </si>
+  <si>
+    <t>1-find the " Notification " button bar on the top of the page
+2- click on " Notification " button</t>
+  </si>
+  <si>
+    <t>1-find the " Notification " button bar on the top of the page
+2- notice the " Notification " button</t>
+  </si>
+  <si>
+    <t>1- log in with valid username
+and password
+2- Direct to " Home " page
+3- get notification already</t>
+  </si>
+  <si>
+    <t>1-find the " search " field bar on the top of the page
+2- write auther first name in the field
+3- press " Enter " key</t>
+  </si>
+  <si>
+    <t>1-find the " search " field bar on the top of the page
+2- write auther last name in the field
+3- press " Enter " key</t>
+  </si>
+  <si>
+    <t>1-find the " search " field bar on the top of the page
+2- write auther first and last name in the field
+3- press " Enter " key</t>
+  </si>
+  <si>
+    <t>check  Search  by article tittle</t>
+  </si>
+  <si>
+    <t>verify that user can search article by the article tittle</t>
+  </si>
+  <si>
+    <t>1-find the " search " field bar on the top of the page
+2- write article tittle in the field
+3- press " Enter " key</t>
+  </si>
+  <si>
+    <t>check the " Testing " article drop down button</t>
+  </si>
+  <si>
+    <t>check the " Mobile " article drop down button</t>
+  </si>
+  <si>
+    <t>check the " Networks " aarticle drop down button</t>
+  </si>
+  <si>
+    <t>check the " Introduction to ISTQB " article drop down button</t>
+  </si>
+  <si>
+    <t>check the " Introduction to Embeded " article drop down button</t>
+  </si>
+  <si>
+    <t>Verify Testing article drop down button is working and show the items inside it</t>
+  </si>
+  <si>
+    <t>Verify Mobile article drop down button is working and show the items inside it</t>
+  </si>
+  <si>
+    <t>Verify Networks article drop down button is working and show the items inside it</t>
+  </si>
+  <si>
+    <t>Verify Introduction to ISTQB article drop down button is working and show the items inside it</t>
+  </si>
+  <si>
+    <t>Verify Introduction to Embeded article drop down button is working and show the items inside it</t>
   </si>
 </sst>
 </file>
@@ -1399,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD62"/>
+  <dimension ref="A1:XFD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -21361,7 +21443,7 @@
         <v>238</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>265</v>
@@ -21373,7 +21455,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="93.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" ht="135" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
         <v>207</v>
       </c>
@@ -21390,7 +21472,7 @@
         <v>238</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H40" s="15"/>
       <c r="J40" s="4" t="s">
@@ -21400,7 +21482,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="84" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" ht="105" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>208</v>
       </c>
@@ -21415,6 +21497,9 @@
       </c>
       <c r="E41" s="5" t="s">
         <v>238</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="H41" s="15"/>
       <c r="J41" s="4" t="s">
@@ -21424,7 +21509,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="84" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" ht="116.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>208</v>
       </c>
@@ -21439,6 +21524,9 @@
       </c>
       <c r="E42" s="5" t="s">
         <v>238</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="H42" s="15"/>
       <c r="J42" s="4" t="s">
@@ -21462,7 +21550,10 @@
         <v>200</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>238</v>
+        <v>279</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>278</v>
       </c>
       <c r="H43" s="15"/>
       <c r="J43" s="4" t="s">
@@ -21486,7 +21577,10 @@
         <v>88</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>238</v>
+        <v>279</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="H44" s="15" t="s">
         <v>116</v>
@@ -21514,6 +21608,9 @@
       <c r="E45" s="5" t="s">
         <v>238</v>
       </c>
+      <c r="F45" s="5" t="s">
+        <v>280</v>
+      </c>
       <c r="H45" s="15" t="s">
         <v>117</v>
       </c>
@@ -21524,7 +21621,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="84" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" ht="101.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4" t="s">
         <v>231</v>
       </c>
@@ -21540,6 +21637,9 @@
       <c r="E46" s="5" t="s">
         <v>238</v>
       </c>
+      <c r="F46" s="5" t="s">
+        <v>281</v>
+      </c>
       <c r="H46" s="15" t="s">
         <v>118</v>
       </c>
@@ -21550,7 +21650,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" ht="119.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4" t="s">
         <v>232</v>
       </c>
@@ -21566,6 +21666,9 @@
       <c r="E47" s="5" t="s">
         <v>238</v>
       </c>
+      <c r="F47" s="5" t="s">
+        <v>282</v>
+      </c>
       <c r="H47" s="15" t="s">
         <v>119</v>
       </c>
@@ -21576,23 +21679,25 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="4" t="s">
-        <v>233</v>
-      </c>
+    <row r="48" spans="1:11" ht="119.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="H48" s="15"/>
+      <c r="F48" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>119</v>
+      </c>
       <c r="J48" s="4" t="s">
         <v>41</v>
       </c>
@@ -21602,16 +21707,16 @@
     </row>
     <row r="49" spans="1:126" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>216</v>
+        <v>286</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>238</v>
@@ -21626,16 +21731,16 @@
     </row>
     <row r="50" spans="1:126" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>218</v>
+        <v>287</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>223</v>
+        <v>292</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>238</v>
@@ -21650,16 +21755,16 @@
     </row>
     <row r="51" spans="1:126" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>219</v>
+        <v>288</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>224</v>
+        <v>293</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>238</v>
@@ -21674,16 +21779,16 @@
     </row>
     <row r="52" spans="1:126" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>220</v>
+        <v>289</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>225</v>
+        <v>294</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>238</v>
@@ -21696,189 +21801,181 @@
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="1:126" s="7" customFormat="1" ht="36.6" x14ac:dyDescent="0.4">
-      <c r="A53" s="17" t="s">
+    <row r="53" spans="1:126" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="J53" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:126" s="7" customFormat="1" ht="36.6" x14ac:dyDescent="0.4">
+      <c r="A54" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
-      <c r="AB53" s="1"/>
-      <c r="AC53" s="1"/>
-      <c r="AD53" s="1"/>
-      <c r="AE53" s="1"/>
-      <c r="AF53" s="1"/>
-      <c r="AG53" s="1"/>
-      <c r="AH53" s="1"/>
-      <c r="AI53" s="1"/>
-      <c r="AJ53" s="1"/>
-      <c r="AK53" s="1"/>
-      <c r="AL53" s="1"/>
-      <c r="AM53" s="1"/>
-      <c r="AN53" s="1"/>
-      <c r="AO53" s="1"/>
-      <c r="AP53" s="1"/>
-      <c r="AQ53" s="1"/>
-      <c r="AR53" s="1"/>
-      <c r="AS53" s="1"/>
-      <c r="AT53" s="1"/>
-      <c r="AU53" s="1"/>
-      <c r="AV53" s="1"/>
-      <c r="AW53" s="1"/>
-      <c r="AX53" s="1"/>
-      <c r="AY53" s="1"/>
-      <c r="AZ53" s="1"/>
-      <c r="BA53" s="1"/>
-      <c r="BB53" s="1"/>
-      <c r="BC53" s="1"/>
-      <c r="BD53" s="1"/>
-      <c r="BE53" s="1"/>
-      <c r="BF53" s="1"/>
-      <c r="BG53" s="1"/>
-      <c r="BH53" s="1"/>
-      <c r="BI53" s="1"/>
-      <c r="BJ53" s="1"/>
-      <c r="BK53" s="1"/>
-      <c r="BL53" s="1"/>
-      <c r="BM53" s="1"/>
-      <c r="BN53" s="1"/>
-      <c r="BO53" s="1"/>
-      <c r="BP53" s="1"/>
-      <c r="BQ53" s="1"/>
-      <c r="BR53" s="1"/>
-      <c r="BS53" s="1"/>
-      <c r="BT53" s="1"/>
-      <c r="BU53" s="1"/>
-      <c r="BV53" s="1"/>
-      <c r="BW53" s="1"/>
-      <c r="BX53" s="1"/>
-      <c r="BY53" s="1"/>
-      <c r="BZ53" s="1"/>
-      <c r="CA53" s="1"/>
-      <c r="CB53" s="1"/>
-      <c r="CC53" s="1"/>
-      <c r="CD53" s="1"/>
-      <c r="CE53" s="1"/>
-      <c r="CF53" s="1"/>
-      <c r="CG53" s="1"/>
-      <c r="CH53" s="1"/>
-      <c r="CI53" s="1"/>
-      <c r="CJ53" s="1"/>
-      <c r="CK53" s="1"/>
-      <c r="CL53" s="1"/>
-      <c r="CM53" s="1"/>
-      <c r="CN53" s="1"/>
-      <c r="CO53" s="1"/>
-      <c r="CP53" s="1"/>
-      <c r="CQ53" s="1"/>
-      <c r="CR53" s="1"/>
-      <c r="CS53" s="1"/>
-      <c r="CT53" s="1"/>
-      <c r="CU53" s="1"/>
-      <c r="CV53" s="1"/>
-      <c r="CW53" s="1"/>
-      <c r="CX53" s="1"/>
-      <c r="CY53" s="1"/>
-      <c r="CZ53" s="1"/>
-      <c r="DA53" s="1"/>
-      <c r="DB53" s="1"/>
-      <c r="DC53" s="1"/>
-      <c r="DD53" s="1"/>
-      <c r="DE53" s="1"/>
-      <c r="DF53" s="1"/>
-      <c r="DG53" s="1"/>
-      <c r="DH53" s="1"/>
-      <c r="DI53" s="1"/>
-      <c r="DJ53" s="1"/>
-      <c r="DK53" s="1"/>
-      <c r="DL53" s="1"/>
-      <c r="DM53" s="1"/>
-      <c r="DN53" s="1"/>
-      <c r="DO53" s="1"/>
-      <c r="DP53" s="1"/>
-      <c r="DQ53" s="1"/>
-      <c r="DR53" s="1"/>
-      <c r="DS53" s="1"/>
-      <c r="DT53" s="1"/>
-      <c r="DU53" s="1"/>
-      <c r="DV53" s="1"/>
-    </row>
-    <row r="54" spans="1:126" ht="232.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="I54" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>176</v>
-      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1"/>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="1"/>
+      <c r="AO54" s="1"/>
+      <c r="AP54" s="1"/>
+      <c r="AQ54" s="1"/>
+      <c r="AR54" s="1"/>
+      <c r="AS54" s="1"/>
+      <c r="AT54" s="1"/>
+      <c r="AU54" s="1"/>
+      <c r="AV54" s="1"/>
+      <c r="AW54" s="1"/>
+      <c r="AX54" s="1"/>
+      <c r="AY54" s="1"/>
+      <c r="AZ54" s="1"/>
+      <c r="BA54" s="1"/>
+      <c r="BB54" s="1"/>
+      <c r="BC54" s="1"/>
+      <c r="BD54" s="1"/>
+      <c r="BE54" s="1"/>
+      <c r="BF54" s="1"/>
+      <c r="BG54" s="1"/>
+      <c r="BH54" s="1"/>
+      <c r="BI54" s="1"/>
+      <c r="BJ54" s="1"/>
+      <c r="BK54" s="1"/>
+      <c r="BL54" s="1"/>
+      <c r="BM54" s="1"/>
+      <c r="BN54" s="1"/>
+      <c r="BO54" s="1"/>
+      <c r="BP54" s="1"/>
+      <c r="BQ54" s="1"/>
+      <c r="BR54" s="1"/>
+      <c r="BS54" s="1"/>
+      <c r="BT54" s="1"/>
+      <c r="BU54" s="1"/>
+      <c r="BV54" s="1"/>
+      <c r="BW54" s="1"/>
+      <c r="BX54" s="1"/>
+      <c r="BY54" s="1"/>
+      <c r="BZ54" s="1"/>
+      <c r="CA54" s="1"/>
+      <c r="CB54" s="1"/>
+      <c r="CC54" s="1"/>
+      <c r="CD54" s="1"/>
+      <c r="CE54" s="1"/>
+      <c r="CF54" s="1"/>
+      <c r="CG54" s="1"/>
+      <c r="CH54" s="1"/>
+      <c r="CI54" s="1"/>
+      <c r="CJ54" s="1"/>
+      <c r="CK54" s="1"/>
+      <c r="CL54" s="1"/>
+      <c r="CM54" s="1"/>
+      <c r="CN54" s="1"/>
+      <c r="CO54" s="1"/>
+      <c r="CP54" s="1"/>
+      <c r="CQ54" s="1"/>
+      <c r="CR54" s="1"/>
+      <c r="CS54" s="1"/>
+      <c r="CT54" s="1"/>
+      <c r="CU54" s="1"/>
+      <c r="CV54" s="1"/>
+      <c r="CW54" s="1"/>
+      <c r="CX54" s="1"/>
+      <c r="CY54" s="1"/>
+      <c r="CZ54" s="1"/>
+      <c r="DA54" s="1"/>
+      <c r="DB54" s="1"/>
+      <c r="DC54" s="1"/>
+      <c r="DD54" s="1"/>
+      <c r="DE54" s="1"/>
+      <c r="DF54" s="1"/>
+      <c r="DG54" s="1"/>
+      <c r="DH54" s="1"/>
+      <c r="DI54" s="1"/>
+      <c r="DJ54" s="1"/>
+      <c r="DK54" s="1"/>
+      <c r="DL54" s="1"/>
+      <c r="DM54" s="1"/>
+      <c r="DN54" s="1"/>
+      <c r="DO54" s="1"/>
+      <c r="DP54" s="1"/>
+      <c r="DQ54" s="1"/>
+      <c r="DR54" s="1"/>
+      <c r="DS54" s="1"/>
+      <c r="DT54" s="1"/>
+      <c r="DU54" s="1"/>
+      <c r="DV54" s="1"/>
     </row>
     <row r="55" spans="1:126" ht="232.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>131</v>
@@ -21890,27 +21987,27 @@
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:126" ht="261.60000000000002" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:126" ht="232.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>131</v>
@@ -21922,27 +22019,27 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:126" ht="194.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:126" ht="261.60000000000002" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>131</v>
@@ -21951,32 +22048,30 @@
         <v>41</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:126" s="9" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>153</v>
+    <row r="58" spans="1:126" ht="194.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E58" s="5"/>
+        <v>144</v>
+      </c>
       <c r="F58" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="G58" s="5"/>
+        <v>185</v>
+      </c>
       <c r="H58" s="15" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>131</v>
@@ -21984,33 +22079,33 @@
       <c r="K58" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L58" s="8" t="s">
-        <v>176</v>
+      <c r="L58" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:126" s="9" customFormat="1" ht="299.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:126" s="9" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>131</v>
@@ -22022,29 +22117,29 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:126" s="9" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:126" s="9" customFormat="1" ht="299.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>131</v>
@@ -22056,27 +22151,29 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:126" ht="208.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:126" s="9" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>156</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="E61" s="5"/>
       <c r="F61" s="5" t="s">
-        <v>180</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G61" s="5"/>
       <c r="H61" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>131</v>
@@ -22088,29 +22185,27 @@
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:126" s="10" customFormat="1" ht="287.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>162</v>
+    <row r="62" spans="1:126" ht="208.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E62" s="6"/>
+        <v>156</v>
+      </c>
       <c r="F62" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G62" s="6"/>
+        <v>180</v>
+      </c>
       <c r="H62" s="15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>131</v>
@@ -22119,6 +22214,40 @@
         <v>41</v>
       </c>
       <c r="L62" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:126" s="10" customFormat="1" ht="287.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G63" s="6"/>
+      <c r="H63" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L63" s="8" t="s">
         <v>176</v>
       </c>
     </row>
@@ -22126,7 +22255,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A18:L18"/>
-    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="A54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="7788" windowHeight="9072" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="7788" windowHeight="9072" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="301">
   <si>
     <t>Descreption</t>
   </si>
@@ -4779,8 +4779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6238,7 +6238,9 @@
       <c r="F4" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H4" s="15" t="s">
         <v>107</v>
       </c>
@@ -6270,7 +6272,9 @@
       <c r="F5" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H5" s="15" t="s">
         <v>106</v>
       </c>
@@ -6302,7 +6306,9 @@
       <c r="F6" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H6" s="15" t="s">
         <v>108</v>
       </c>
@@ -6334,7 +6340,9 @@
       <c r="F7" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H7" s="15" t="s">
         <v>251</v>
       </c>
@@ -6366,7 +6374,9 @@
       <c r="F8" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H8" s="15" t="s">
         <v>252</v>
       </c>
@@ -6398,7 +6408,9 @@
       <c r="F9" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H9" s="15" t="s">
         <v>253</v>
       </c>
@@ -6430,7 +6442,9 @@
       <c r="F10" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H10" s="15" t="s">
         <v>254</v>
       </c>
@@ -6462,7 +6476,9 @@
       <c r="F11" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H11" s="15" t="s">
         <v>256</v>
       </c>
@@ -22866,7 +22882,9 @@
       <c r="F12" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H12" s="15" t="s">
         <v>255</v>
       </c>
@@ -22898,7 +22916,9 @@
       <c r="F13" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H13" s="15" t="s">
         <v>109</v>
       </c>
@@ -22932,7 +22952,9 @@
       <c r="F14" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H14" s="15" t="s">
         <v>110</v>
       </c>
@@ -22964,7 +22986,9 @@
       <c r="F15" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H15" s="15" t="s">
         <v>111</v>
       </c>
@@ -22996,7 +23020,9 @@
       <c r="F16" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H16" s="15" t="s">
         <v>112</v>
       </c>
@@ -23028,7 +23054,9 @@
       <c r="F17" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H17" s="15" t="s">
         <v>113</v>
       </c>
@@ -23060,7 +23088,9 @@
       <c r="F18" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H18" s="15" t="s">
         <v>114</v>
       </c>
@@ -23092,7 +23122,9 @@
       <c r="F19" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="G19" s="6"/>
+      <c r="G19" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H19" s="15" t="s">
         <v>115</v>
       </c>
@@ -23124,7 +23156,9 @@
       <c r="F20" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H20" s="15" t="s">
         <v>266</v>
       </c>
@@ -23156,7 +23190,9 @@
       <c r="F21" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H21" s="15" t="s">
         <v>265</v>
       </c>
@@ -23188,7 +23224,9 @@
       <c r="F22" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="G22" s="6"/>
+      <c r="G22" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H22" s="15" t="s">
         <v>266</v>
       </c>
@@ -23220,7 +23258,9 @@
       <c r="F23" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G23" s="6"/>
+      <c r="G23" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H23" s="15" t="s">
         <v>265</v>
       </c>
@@ -23252,7 +23292,9 @@
       <c r="F24" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="G24" s="6"/>
+      <c r="G24" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H24" s="15"/>
       <c r="I24" s="14"/>
       <c r="J24" s="4" t="s">
@@ -23282,7 +23324,9 @@
       <c r="F25" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="G25" s="6"/>
+      <c r="G25" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H25" s="15"/>
       <c r="I25" s="14"/>
       <c r="J25" s="4" t="s">
@@ -23312,7 +23356,9 @@
       <c r="F26" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="G26" s="6"/>
+      <c r="G26" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H26" s="15"/>
       <c r="I26" s="14"/>
       <c r="J26" s="4" t="s">
@@ -23342,7 +23388,9 @@
       <c r="F27" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="G27" s="6"/>
+      <c r="G27" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H27" s="15"/>
       <c r="I27" s="14"/>
       <c r="J27" s="4" t="s">
@@ -23372,7 +23420,9 @@
       <c r="F28" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="G28" s="6"/>
+      <c r="G28" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H28" s="15" t="s">
         <v>116</v>
       </c>
@@ -23385,7 +23435,7 @@
       </c>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>230</v>
       </c>
@@ -23404,7 +23454,9 @@
       <c r="F29" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="G29" s="6"/>
+      <c r="G29" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H29" s="15" t="s">
         <v>117</v>
       </c>
@@ -23436,7 +23488,9 @@
       <c r="F30" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="G30" s="6"/>
+      <c r="G30" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H30" s="15" t="s">
         <v>118</v>
       </c>
@@ -23468,7 +23522,9 @@
       <c r="F31" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="G31" s="6"/>
+      <c r="G31" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H31" s="15" t="s">
         <v>119</v>
       </c>
@@ -23498,7 +23554,9 @@
       <c r="F32" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="G32" s="6"/>
+      <c r="G32" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H32" s="15" t="s">
         <v>119</v>
       </c>
@@ -23530,7 +23588,9 @@
       <c r="F33" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="G33" s="6"/>
+      <c r="G33" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H33" s="15"/>
       <c r="I33" s="14"/>
       <c r="J33" s="4" t="s">
@@ -23560,7 +23620,9 @@
       <c r="F34" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="G34" s="6"/>
+      <c r="G34" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H34" s="15"/>
       <c r="I34" s="14"/>
       <c r="J34" s="4" t="s">
@@ -23590,7 +23652,9 @@
       <c r="F35" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="G35" s="6"/>
+      <c r="G35" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H35" s="15"/>
       <c r="I35" s="14"/>
       <c r="J35" s="4" t="s">
@@ -23620,7 +23684,9 @@
       <c r="F36" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="G36" s="6"/>
+      <c r="G36" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H36" s="15"/>
       <c r="I36" s="14"/>
       <c r="J36" s="4" t="s">
@@ -23650,7 +23716,9 @@
       <c r="F37" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="G37" s="6"/>
+      <c r="G37" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="H37" s="15"/>
       <c r="I37" s="14"/>
       <c r="J37" s="4" t="s">

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="7788" windowHeight="9072" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="7788" windowHeight="9072" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="315">
   <si>
     <t>Descreption</t>
   </si>
@@ -221,13 +221,7 @@
     <t>check navigation bar items display</t>
   </si>
   <si>
-    <t>check  Search by auter first name</t>
-  </si>
-  <si>
     <t>check  Search by auter last name</t>
-  </si>
-  <si>
-    <t>check  Search  by auter first and last  name</t>
   </si>
   <si>
     <t>check the logo position</t>
@@ -304,9 +298,6 @@
     <t>verify that " Notification " button direct the user to the Notification page</t>
   </si>
   <si>
-    <t>verify that user can search article by the first and last name of the auther</t>
-  </si>
-  <si>
     <t xml:space="preserve">user can log in </t>
   </si>
   <si>
@@ -399,15 +390,7 @@
   </si>
   <si>
     <t>search result appear with 
-auther first name</t>
-  </si>
-  <si>
-    <t>search result appear with 
 auther last name</t>
-  </si>
-  <si>
-    <t>search result appear with 
-auther first and last name</t>
   </si>
   <si>
     <t>check the " show password " icon
@@ -710,9 +693,6 @@
     <t>verify that " notification" colored in red when get a notification</t>
   </si>
   <si>
-    <t>verify that user can search article by the first name of the auther</t>
-  </si>
-  <si>
     <t>verify that user can search article by the last name of the auther</t>
   </si>
   <si>
@@ -788,9 +768,6 @@
   </si>
   <si>
     <t>verify that " home " button direct the user to the home page</t>
-  </si>
-  <si>
-    <t>FARAH</t>
   </si>
   <si>
     <t>NV_22</t>
@@ -998,17 +975,7 @@
   </si>
   <si>
     <t>1-find the " search " field bar on the top of the page
-2- write auther first name in the field
-3- press " Enter " key</t>
-  </si>
-  <si>
-    <t>1-find the " search " field bar on the top of the page
 2- write auther last name in the field
-3- press " Enter " key</t>
-  </si>
-  <si>
-    <t>1-find the " search " field bar on the top of the page
-2- write auther first and last name in the field
 3- press " Enter " key</t>
   </si>
   <si>
@@ -1076,6 +1043,101 @@
     <t>1-find the Recently uploaded articles below the logo
 2- find " Introduction to Embeded " articles
 3- click on drop down button</t>
+  </si>
+  <si>
+    <t>NV_32</t>
+  </si>
+  <si>
+    <t>system accepty vedio with any size</t>
+  </si>
+  <si>
+    <t>system accept the MP3 format</t>
+  </si>
+  <si>
+    <t>system reject the WAV format</t>
+  </si>
+  <si>
+    <t>the notification button is red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the button is dropping down </t>
+  </si>
+  <si>
+    <t>user name : aya
+password : 123
+upload article : english</t>
+  </si>
+  <si>
+    <t>user name : aya
+password : 123
+upload article : arabic</t>
+  </si>
+  <si>
+    <t>user name : aya
+password : 123
+upload format : MP4</t>
+  </si>
+  <si>
+    <t>user name : aya
+password : 123
+upload format : MP4
+file size : 500 MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user name : aya
+password : 123
+upload format : MP3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user name : aya
+password : 123
+upload format : WAV
+</t>
+  </si>
+  <si>
+    <t>user name : aya
+password : 123
+upload format : MPV</t>
+  </si>
+  <si>
+    <t>the button drop down
+ correctly</t>
+  </si>
+  <si>
+    <t>search result appear with 
+article tittle</t>
+  </si>
+  <si>
+    <t>error page appears</t>
+  </si>
+  <si>
+    <t>button not working</t>
+  </si>
+  <si>
+    <t>check  Search  by article category  name</t>
+  </si>
+  <si>
+    <t>verify that user can search by article category  name</t>
+  </si>
+  <si>
+    <t>1-find the " search " field bar on the top of the page
+2- write article category  name
+3- press " Enter " key</t>
+  </si>
+  <si>
+    <t>user name : aya
+password : 123
+category : Introduction to ISTQB</t>
+  </si>
+  <si>
+    <t>user name : aya
+password : 123
+tittle : ISTQB</t>
+  </si>
+  <si>
+    <t>search result appear with 
+article category  name</t>
   </si>
 </sst>
 </file>
@@ -2777,7 +2839,7 @@
         <v>7</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -3990,16 +4052,16 @@
         <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>41</v>
@@ -4019,13 +4081,13 @@
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="H4" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>41</v>
@@ -4042,16 +4104,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>94</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>41</v>
@@ -4071,13 +4133,13 @@
         <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>41</v>
@@ -4100,7 +4162,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>41</v>
@@ -4123,7 +4185,7 @@
         <v>48</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>41</v>
@@ -4146,7 +4208,7 @@
         <v>43</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>41</v>
@@ -4169,7 +4231,7 @@
         <v>22</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>41</v>
@@ -4192,7 +4254,7 @@
         <v>23</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>41</v>
@@ -4209,13 +4271,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>41</v>
@@ -4232,13 +4294,13 @@
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>41</v>
@@ -4261,7 +4323,7 @@
         <v>50</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>41</v>
@@ -4284,7 +4346,7 @@
         <v>51</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>41</v>
@@ -4307,7 +4369,7 @@
         <v>45</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>41</v>
@@ -4327,10 +4389,10 @@
         <v>40</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>41</v>
@@ -4341,7 +4403,7 @@
     </row>
     <row r="18" spans="1:126" s="7" customFormat="1" ht="36.6" x14ac:dyDescent="0.4">
       <c r="A18" s="17" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -4471,298 +4533,298 @@
     </row>
     <row r="19" spans="1:126" ht="232.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>41</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:126" ht="232.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>138</v>
-      </c>
       <c r="I20" s="15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>41</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:126" ht="261.60000000000002" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>139</v>
-      </c>
       <c r="I21" s="15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>41</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:126" ht="194.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>41</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:126" s="9" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>41</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:126" s="9" customFormat="1" ht="299.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>41</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:126" s="9" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>41</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:126" ht="208.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>160</v>
-      </c>
       <c r="I26" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>41</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:126" s="10" customFormat="1" ht="287.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>41</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4777,10 +4839,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD37"/>
+  <dimension ref="A1:XFD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G37"/>
+    <sheetView tabSelected="1" topLeftCell="E32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4791,11 +4853,10 @@
     <col min="4" max="4" width="56" customWidth="1"/>
     <col min="5" max="5" width="37.5546875" customWidth="1"/>
     <col min="6" max="6" width="38.88671875" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
-    <col min="9" max="9" width="29.44140625" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" customWidth="1"/>
+    <col min="8" max="8" width="39.44140625" customWidth="1"/>
+    <col min="9" max="9" width="39.77734375" customWidth="1"/>
+    <col min="10" max="11" width="19.5546875" customWidth="1"/>
     <col min="12" max="12" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4834,7 +4895,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -6035,7 +6096,7 @@
     </row>
     <row r="2" spans="1:16384" s="13" customFormat="1" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -6187,7 +6248,7 @@
     </row>
     <row r="3" spans="1:16384" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>14</v>
@@ -6196,66 +6257,70 @@
         <v>60</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="I3" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="J3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="4" spans="1:16384" s="1" customFormat="1" ht="105.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="I4" s="14"/>
+        <v>104</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="J4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="5" spans="1:16384" s="1" customFormat="1" ht="125.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -6264,32 +6329,34 @@
         <v>58</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="14"/>
+        <v>103</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="J5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="6" spans="1:16384" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
@@ -6298,198 +6365,210 @@
         <v>61</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" s="14"/>
+        <v>105</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>105</v>
+      </c>
       <c r="J6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="7" spans="1:16384" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="I7" s="14"/>
+        <v>244</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>244</v>
+      </c>
       <c r="J7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="8" spans="1:16384" s="1" customFormat="1" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="I8" s="14"/>
+        <v>245</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>245</v>
+      </c>
       <c r="J8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="9" spans="1:16384" s="1" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="E9" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>245</v>
-      </c>
       <c r="G9" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="I9" s="14"/>
+        <v>246</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>246</v>
+      </c>
       <c r="J9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="10" spans="1:16384" s="1" customFormat="1" ht="127.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="I10" s="14"/>
+        <v>247</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>247</v>
+      </c>
       <c r="J10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="11" spans="1:16384" s="1" customFormat="1" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="I11" s="5"/>
+        <v>249</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>249</v>
+      </c>
       <c r="J11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -22865,41 +22944,43 @@
     </row>
     <row r="12" spans="1:16384" s="1" customFormat="1" ht="137.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="15" t="s">
+        <v>248</v>
+      </c>
       <c r="J12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="13" spans="1:16384" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
@@ -22908,34 +22989,34 @@
         <v>54</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="14" spans="1:16384" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>12</v>
@@ -22944,32 +23025,34 @@
         <v>53</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" s="14"/>
+        <v>107</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="J14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="15" spans="1:16384" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>12</v>
@@ -22978,32 +23061,34 @@
         <v>52</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="14"/>
+        <v>108</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="J15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="16" spans="1:16384" s="1" customFormat="1" ht="112.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
@@ -23012,32 +23097,34 @@
         <v>56</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="I16" s="14"/>
+        <v>109</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="J16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="137.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
@@ -23046,32 +23133,34 @@
         <v>57</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" s="14"/>
+        <v>110</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>110</v>
+      </c>
       <c r="J17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>12</v>
@@ -23080,298 +23169,322 @@
         <v>55</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="I18" s="14"/>
+        <v>111</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="J18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="147.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="I19" s="14"/>
+        <v>112</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>112</v>
+      </c>
       <c r="J19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="171.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>190</v>
+        <v>298</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I20" s="14"/>
+        <v>259</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="J20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>190</v>
+        <v>299</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="I21" s="14"/>
+        <v>258</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="J21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I22" s="14"/>
+        <v>259</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="J22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>274</v>
-      </c>
       <c r="G23" s="5" t="s">
-        <v>190</v>
+        <v>304</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="I23" s="14"/>
+        <v>258</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="J23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="195.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="14"/>
+        <v>301</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="J24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="149.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="14"/>
+        <v>302</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="J25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="14"/>
+        <v>303</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="J26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="169.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>12</v>
@@ -23380,30 +23493,34 @@
         <v>59</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="14"/>
+        <v>185</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>308</v>
+      </c>
       <c r="J27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K27" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>12</v>
@@ -23412,32 +23529,34 @@
         <v>59</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="I28" s="14"/>
+        <v>113</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>308</v>
+      </c>
       <c r="J28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="29" spans="1:12" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" s="1" customFormat="1" ht="101.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>12</v>
@@ -23446,288 +23565,280 @@
         <v>62</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="I29" s="14"/>
+        <v>114</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>307</v>
+      </c>
       <c r="J29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" s="1" customFormat="1" ht="101.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" s="1" customFormat="1" ht="119.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>63</v>
+        <v>309</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>202</v>
+        <v>310</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>190</v>
+        <v>312</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="I30" s="14"/>
+        <v>314</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>314</v>
+      </c>
       <c r="J30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="31" spans="1:12" s="1" customFormat="1" ht="119.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" s="1" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>64</v>
+        <v>274</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>89</v>
+        <v>275</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>190</v>
+        <v>313</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="I31" s="14"/>
+        <v>306</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>306</v>
+      </c>
       <c r="J31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="4"/>
+      <c r="L31" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="1" customFormat="1" ht="123.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="1:12" s="1" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="I32" s="14"/>
+        <v>297</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>305</v>
+      </c>
       <c r="J32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K32" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" ht="123.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" s="1" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="14"/>
+        <v>185</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>305</v>
+      </c>
       <c r="J33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K33" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" s="1" customFormat="1" ht="88.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F34" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H34" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="14"/>
+      <c r="I34" s="15" t="s">
+        <v>305</v>
+      </c>
       <c r="J34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" ht="88.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" s="1" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="14"/>
+        <v>185</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>305</v>
+      </c>
       <c r="J35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="36" spans="1:12" s="1" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" s="1" customFormat="1" ht="106.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="14"/>
+        <v>185</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>305</v>
+      </c>
       <c r="J36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K36" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" ht="106.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L37" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
